--- a/outcome/appendix/data/forecast/Tuberculosis.xlsx
+++ b/outcome/appendix/data/forecast/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>94213.3292664063</v>
+        <v>93864.5535835892</v>
       </c>
       <c r="C2" t="n">
-        <v>87307.8234643512</v>
+        <v>86790.0302128488</v>
       </c>
       <c r="D2" t="n">
-        <v>83661.3833599917</v>
+        <v>83742.6762211104</v>
       </c>
       <c r="E2" t="n">
-        <v>101678.695748358</v>
+        <v>100364.900474381</v>
       </c>
       <c r="F2" t="n">
-        <v>105734.473158803</v>
+        <v>104497.277391529</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26531.3292664063</v>
+        <v>26182.5535835892</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81765.3603071531</v>
+        <v>81803.3303880049</v>
       </c>
       <c r="C3" t="n">
-        <v>73152.5053174552</v>
+        <v>73571.5847246819</v>
       </c>
       <c r="D3" t="n">
-        <v>67823.0084204721</v>
+        <v>69278.1552921968</v>
       </c>
       <c r="E3" t="n">
-        <v>89752.5092338003</v>
+        <v>90279.6216098566</v>
       </c>
       <c r="F3" t="n">
-        <v>94091.0581927298</v>
+        <v>94451.1639124467</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36832.3603071531</v>
+        <v>36870.3303880049</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100360.706369039</v>
+        <v>99984.4203220445</v>
       </c>
       <c r="C4" t="n">
-        <v>91566.4326410416</v>
+        <v>91076.1005298871</v>
       </c>
       <c r="D4" t="n">
-        <v>86276.3742567385</v>
+        <v>84870.0170773359</v>
       </c>
       <c r="E4" t="n">
-        <v>109180.136436842</v>
+        <v>109560.357056722</v>
       </c>
       <c r="F4" t="n">
-        <v>113725.319671788</v>
+        <v>114239.560061925</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>26933.7063690388</v>
+        <v>26557.4203220445</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94517.1715722254</v>
+        <v>94370.6493171309</v>
       </c>
       <c r="C5" t="n">
-        <v>84267.9651345785</v>
+        <v>82976.2777251906</v>
       </c>
       <c r="D5" t="n">
-        <v>78537.3726088766</v>
+        <v>78907.1863017903</v>
       </c>
       <c r="E5" t="n">
-        <v>104319.449969328</v>
+        <v>105055.042993559</v>
       </c>
       <c r="F5" t="n">
-        <v>109711.582420872</v>
+        <v>110566.271321822</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>8833.1715722254</v>
+        <v>8686.64931713091</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91123.9994774881</v>
+        <v>91333.1641416454</v>
       </c>
       <c r="C6" t="n">
-        <v>79725.2165862181</v>
+        <v>79548.8828631683</v>
       </c>
       <c r="D6" t="n">
-        <v>74545.8045033489</v>
+        <v>73122.0698847392</v>
       </c>
       <c r="E6" t="n">
-        <v>101656.772138068</v>
+        <v>102995.774394037</v>
       </c>
       <c r="F6" t="n">
-        <v>107056.973005791</v>
+        <v>107952.850544022</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>7738.99947748806</v>
+        <v>7948.16414164536</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>87309.600889654</v>
+        <v>87839.9721409315</v>
       </c>
       <c r="C7" t="n">
-        <v>75204.3865938803</v>
+        <v>75180.2551393353</v>
       </c>
       <c r="D7" t="n">
-        <v>68403.5875550817</v>
+        <v>68602.3845822796</v>
       </c>
       <c r="E7" t="n">
-        <v>99657.7597993287</v>
+        <v>99835.0672624819</v>
       </c>
       <c r="F7" t="n">
-        <v>104978.753623029</v>
+        <v>104330.796182738</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>2357.60088965404</v>
+        <v>2887.97214093145</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>84862.1469768455</v>
+        <v>85399.205223665</v>
       </c>
       <c r="C8" t="n">
-        <v>72699.4930654804</v>
+        <v>72272.0694451466</v>
       </c>
       <c r="D8" t="n">
-        <v>64596.4880165071</v>
+        <v>63656.4065309961</v>
       </c>
       <c r="E8" t="n">
-        <v>96358.9597761374</v>
+        <v>98453.9150644792</v>
       </c>
       <c r="F8" t="n">
-        <v>105243.789246274</v>
+        <v>103871.608867243</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>8439.14697684551</v>
+        <v>8976.20522366502</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>81731.8213456204</v>
+        <v>82144.9903787327</v>
       </c>
       <c r="C9" t="n">
-        <v>68694.3932872865</v>
+        <v>69301.4642458594</v>
       </c>
       <c r="D9" t="n">
-        <v>60101.5063055763</v>
+        <v>58854.0617842758</v>
       </c>
       <c r="E9" t="n">
-        <v>94269.9796748961</v>
+        <v>96223.0046720576</v>
       </c>
       <c r="F9" t="n">
-        <v>102957.95484221</v>
+        <v>101237.292559002</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-1369.17865437956</v>
+        <v>-956.009621267265</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>77988.6486916138</v>
+        <v>78192.1081079123</v>
       </c>
       <c r="C10" t="n">
-        <v>64598.9858988844</v>
+        <v>62854.3324551038</v>
       </c>
       <c r="D10" t="n">
-        <v>57172.1818461542</v>
+        <v>54622.4970798406</v>
       </c>
       <c r="E10" t="n">
-        <v>92835.9448561485</v>
+        <v>93139.4885488939</v>
       </c>
       <c r="F10" t="n">
-        <v>101544.079695242</v>
+        <v>100675.517645598</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2579.64869161379</v>
+        <v>2783.10810791228</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>74603.9335495669</v>
+        <v>74998.1258900415</v>
       </c>
       <c r="C11" t="n">
-        <v>60630.7333051532</v>
+        <v>57985.1488668183</v>
       </c>
       <c r="D11" t="n">
-        <v>52958.4091372314</v>
+        <v>50594.1370974677</v>
       </c>
       <c r="E11" t="n">
-        <v>90209.2423591928</v>
+        <v>89823.8669081592</v>
       </c>
       <c r="F11" t="n">
-        <v>100103.345233215</v>
+        <v>96999.4830534084</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>6760.93354956689</v>
+        <v>7155.12589004145</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72442.7855646559</v>
+        <v>72414.6527100068</v>
       </c>
       <c r="C12" t="n">
-        <v>57308.7846110251</v>
+        <v>57358.9041768817</v>
       </c>
       <c r="D12" t="n">
-        <v>47178.8026106611</v>
+        <v>46706.0236902403</v>
       </c>
       <c r="E12" t="n">
-        <v>87882.2028671849</v>
+        <v>86668.7394545777</v>
       </c>
       <c r="F12" t="n">
-        <v>99785.6789307442</v>
+        <v>95711.9974885129</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>2802.78556465589</v>
+        <v>2774.65271000683</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>69751.0601229714</v>
+        <v>70126.303368685</v>
       </c>
       <c r="C13" t="n">
-        <v>54445.2609967069</v>
+        <v>53728.9189959949</v>
       </c>
       <c r="D13" t="n">
-        <v>43512.6319360937</v>
+        <v>42127.6618256087</v>
       </c>
       <c r="E13" t="n">
-        <v>86187.8683334277</v>
+        <v>85519.7026781207</v>
       </c>
       <c r="F13" t="n">
-        <v>96842.1534892229</v>
+        <v>94929.9795073193</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>5654.06012297144</v>
+        <v>6029.30336868501</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92502.1643301012</v>
+        <v>92254.0887906876</v>
       </c>
       <c r="C14" t="n">
-        <v>76588.8148737703</v>
+        <v>74584.0853499524</v>
       </c>
       <c r="D14" t="n">
-        <v>66524.286726969</v>
+        <v>63711.4445320515</v>
       </c>
       <c r="E14" t="n">
-        <v>109824.171707763</v>
+        <v>109341.462768569</v>
       </c>
       <c r="F14" t="n">
-        <v>120357.171587289</v>
+        <v>115587.990271422</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27689.1643301012</v>
+        <v>27441.0887906876</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80347.87047563</v>
+        <v>80539.1249612856</v>
       </c>
       <c r="C15" t="n">
-        <v>62308.5586006533</v>
+        <v>63626.3886615531</v>
       </c>
       <c r="D15" t="n">
-        <v>51590.2001233052</v>
+        <v>48892.8013458783</v>
       </c>
       <c r="E15" t="n">
-        <v>97281.0697291097</v>
+        <v>98437.426629591</v>
       </c>
       <c r="F15" t="n">
-        <v>109189.284231795</v>
+        <v>110790.521018879</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>24922.87047563</v>
+        <v>25114.1249612856</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>99011.3903236136</v>
+        <v>99019.2631858125</v>
       </c>
       <c r="C16" t="n">
-        <v>82779.5925193762</v>
+        <v>81681.503466992</v>
       </c>
       <c r="D16" t="n">
-        <v>69384.6732029162</v>
+        <v>68612.9701096183</v>
       </c>
       <c r="E16" t="n">
-        <v>116975.226741787</v>
+        <v>117647.929134654</v>
       </c>
       <c r="F16" t="n">
-        <v>127760.493494617</v>
+        <v>125597.981396689</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18208.3903236136</v>
+        <v>18216.2631858125</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93153.1309490462</v>
+        <v>93807.5791541159</v>
       </c>
       <c r="C17" t="n">
-        <v>74734.7931735128</v>
+        <v>73454.1362426561</v>
       </c>
       <c r="D17" t="n">
-        <v>64282.3003914797</v>
+        <v>61101.6191617987</v>
       </c>
       <c r="E17" t="n">
-        <v>110925.284454565</v>
+        <v>112431.602220523</v>
       </c>
       <c r="F17" t="n">
-        <v>122025.892006347</v>
+        <v>121467.271910134</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>12605.1309490462</v>
+        <v>13259.5791541159</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90536.9878380776</v>
+        <v>90585.7499396104</v>
       </c>
       <c r="C18" t="n">
-        <v>71380.1993418418</v>
+        <v>70127.9660106453</v>
       </c>
       <c r="D18" t="n">
-        <v>57137.186488026</v>
+        <v>59047.7560867589</v>
       </c>
       <c r="E18" t="n">
-        <v>111880.837020271</v>
+        <v>110542.975242249</v>
       </c>
       <c r="F18" t="n">
-        <v>119963.150220547</v>
+        <v>120501.675152435</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15293.9878380776</v>
+        <v>15342.7499396104</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>86735.41667553</v>
+        <v>87244.9535135292</v>
       </c>
       <c r="C19" t="n">
-        <v>66786.6330726874</v>
+        <v>67290.6717470307</v>
       </c>
       <c r="D19" t="n">
-        <v>57436.390269551</v>
+        <v>51640.8172879665</v>
       </c>
       <c r="E19" t="n">
-        <v>107805.303054365</v>
+        <v>109308.611751906</v>
       </c>
       <c r="F19" t="n">
-        <v>118527.647551954</v>
+        <v>115087.819737925</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>12851.41667553</v>
+        <v>13360.9535135292</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84391.2493209521</v>
+        <v>84596.4331534815</v>
       </c>
       <c r="C20" t="n">
-        <v>63394.9993414968</v>
+        <v>63066.4005675098</v>
       </c>
       <c r="D20" t="n">
-        <v>51964.4979616389</v>
+        <v>52201.1408759399</v>
       </c>
       <c r="E20" t="n">
-        <v>105935.811662188</v>
+        <v>106381.826463844</v>
       </c>
       <c r="F20" t="n">
-        <v>116922.673624737</v>
+        <v>116815.899179406</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7743.24932095209</v>
+        <v>7948.43315348151</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81944.7618586593</v>
+        <v>81856.0023850813</v>
       </c>
       <c r="C21" t="n">
-        <v>61731.6518184395</v>
+        <v>60524.4345161772</v>
       </c>
       <c r="D21" t="n">
-        <v>49313.9839563294</v>
+        <v>47204.0702036865</v>
       </c>
       <c r="E21" t="n">
-        <v>103992.84690773</v>
+        <v>103289.797864503</v>
       </c>
       <c r="F21" t="n">
-        <v>115370.357491485</v>
+        <v>113540.303956621</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13978.7618586593</v>
+        <v>13890.0023850813</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77589.7097441927</v>
+        <v>77587.8234761076</v>
       </c>
       <c r="C22" t="n">
-        <v>56612.4973710848</v>
+        <v>54119.9105516488</v>
       </c>
       <c r="D22" t="n">
-        <v>42216.4356208819</v>
+        <v>41283.9934301555</v>
       </c>
       <c r="E22" t="n">
-        <v>99967.9670348445</v>
+        <v>101056.358518168</v>
       </c>
       <c r="F22" t="n">
-        <v>110576.090372023</v>
+        <v>109887.846553225</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9777.7097441927</v>
+        <v>9775.82347610757</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74773.4891855562</v>
+        <v>74281.9183912184</v>
       </c>
       <c r="C23" t="n">
-        <v>53205.1376553397</v>
+        <v>52385.6808859511</v>
       </c>
       <c r="D23" t="n">
-        <v>37995.1100576846</v>
+        <v>35440.3484994713</v>
       </c>
       <c r="E23" t="n">
-        <v>97124.686750126</v>
+        <v>96913.7428580801</v>
       </c>
       <c r="F23" t="n">
-        <v>106665.736043546</v>
+        <v>108629.380542195</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>13382.4891855562</v>
+        <v>12890.9183912184</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>72640.7027449041</v>
+        <v>71737.9219645245</v>
       </c>
       <c r="C24" t="n">
-        <v>51541.8770508018</v>
+        <v>47610.3032341187</v>
       </c>
       <c r="D24" t="n">
-        <v>40541.3185867389</v>
+        <v>36812.8575889508</v>
       </c>
       <c r="E24" t="n">
-        <v>96768.6868739036</v>
+        <v>95271.2651205831</v>
       </c>
       <c r="F24" t="n">
-        <v>106527.47919567</v>
+        <v>105270.223096585</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>10887.7027449041</v>
+        <v>9984.9219645245</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69515.9000986315</v>
+        <v>69164.7669112559</v>
       </c>
       <c r="C25" t="n">
-        <v>45978.1459388855</v>
+        <v>46023.4000171812</v>
       </c>
       <c r="D25" t="n">
-        <v>34341.9685611932</v>
+        <v>29337.6415722537</v>
       </c>
       <c r="E25" t="n">
-        <v>93817.4250551321</v>
+        <v>93305.6845723679</v>
       </c>
       <c r="F25" t="n">
-        <v>105450.367936566</v>
+        <v>105749.1169776</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>7727.90009863154</v>
+        <v>7376.76691125589</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>92725.6840477907</v>
+        <v>91658.0932788243</v>
       </c>
       <c r="C26" t="n">
-        <v>69979.2594713264</v>
+        <v>64140.2034563845</v>
       </c>
       <c r="D26" t="n">
-        <v>54517.1769098572</v>
+        <v>51606.5840840436</v>
       </c>
       <c r="E26" t="n">
-        <v>117043.995080567</v>
+        <v>116222.53583454</v>
       </c>
       <c r="F26" t="n">
-        <v>129690.129534026</v>
+        <v>128034.972340654</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>31028.6840477907</v>
+        <v>29961.0932788243</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>80386.9557578765</v>
+        <v>79742.786935337</v>
       </c>
       <c r="C27" t="n">
-        <v>55391.6462471755</v>
+        <v>52454.6636852206</v>
       </c>
       <c r="D27" t="n">
-        <v>41763.2810555911</v>
+        <v>39992.8011188172</v>
       </c>
       <c r="E27" t="n">
-        <v>105674.305912515</v>
+        <v>104393.342290769</v>
       </c>
       <c r="F27" t="n">
-        <v>119307.069982635</v>
+        <v>121246.445678249</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>27790.9557578765</v>
+        <v>27146.786935337</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>99503.1600116966</v>
+        <v>97953.2750725294</v>
       </c>
       <c r="C28" t="n">
-        <v>76446.5846161164</v>
+        <v>70873.5988640352</v>
       </c>
       <c r="D28" t="n">
-        <v>57579.7214942204</v>
+        <v>58977.2442168295</v>
       </c>
       <c r="E28" t="n">
-        <v>127194.897135777</v>
+        <v>122808.031591781</v>
       </c>
       <c r="F28" t="n">
-        <v>138481.879779465</v>
+        <v>136125.708280729</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>26393.1600116966</v>
+        <v>24843.2750725294</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>93467.9464517489</v>
+        <v>92876.1618108653</v>
       </c>
       <c r="C29" t="n">
-        <v>68835.3262719526</v>
+        <v>66331.2887483504</v>
       </c>
       <c r="D29" t="n">
-        <v>49669.2484514464</v>
+        <v>49843.4164055269</v>
       </c>
       <c r="E29" t="n">
-        <v>118456.192258865</v>
+        <v>118767.639758932</v>
       </c>
       <c r="F29" t="n">
-        <v>132492.224218787</v>
+        <v>133891.828537316</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>32282.9464517489</v>
+        <v>31691.1618108653</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90481.5392441965</v>
+        <v>89992.2274558397</v>
       </c>
       <c r="C30" t="n">
-        <v>64138.6355475927</v>
+        <v>63959.7240166082</v>
       </c>
       <c r="D30" t="n">
-        <v>49206.4597756021</v>
+        <v>46191.5368581186</v>
       </c>
       <c r="E30" t="n">
-        <v>117338.035934613</v>
+        <v>114255.279075629</v>
       </c>
       <c r="F30" t="n">
-        <v>132671.302805979</v>
+        <v>131181.892464732</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26891.5392441965</v>
+        <v>26402.2274558397</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86712.1463547871</v>
+        <v>86611.1786094474</v>
       </c>
       <c r="C31" t="n">
-        <v>60808.7990582753</v>
+        <v>57280.1159543875</v>
       </c>
       <c r="D31" t="n">
-        <v>43204.5676878364</v>
+        <v>44058.4889278713</v>
       </c>
       <c r="E31" t="n">
-        <v>114856.995560812</v>
+        <v>113462.845528297</v>
       </c>
       <c r="F31" t="n">
-        <v>128414.723320203</v>
+        <v>128797.974753788</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>18811.1463547871</v>
+        <v>18710.1786094474</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84614.0355167532</v>
+        <v>84704.7723837636</v>
       </c>
       <c r="C32" t="n">
-        <v>57258.5432439484</v>
+        <v>56106.2682916912</v>
       </c>
       <c r="D32" t="n">
-        <v>39577.8772025418</v>
+        <v>39405.2512458661</v>
       </c>
       <c r="E32" t="n">
-        <v>113646.672611969</v>
+        <v>111987.595309265</v>
       </c>
       <c r="F32" t="n">
-        <v>127660.34062509</v>
+        <v>126835.946290131</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>13192.0355167532</v>
+        <v>13282.7723837636</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81523.8754073821</v>
+        <v>81751.7385932164</v>
       </c>
       <c r="C33" t="n">
-        <v>55489.1602602271</v>
+        <v>52995.421414872</v>
       </c>
       <c r="D33" t="n">
-        <v>36281.5440232703</v>
+        <v>38018.4151895683</v>
       </c>
       <c r="E33" t="n">
-        <v>108488.956316954</v>
+        <v>111883.136323742</v>
       </c>
       <c r="F33" t="n">
-        <v>124563.916542794</v>
+        <v>122978.274433813</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>12504.8754073821</v>
+        <v>12732.7385932164</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>77183.0739351849</v>
+        <v>77105.7020228594</v>
       </c>
       <c r="C34" t="n">
-        <v>47238.8527773493</v>
+        <v>48121.1082590161</v>
       </c>
       <c r="D34" t="n">
-        <v>30429.5040899909</v>
+        <v>34373.9126015178</v>
       </c>
       <c r="E34" t="n">
-        <v>105700.479455069</v>
+        <v>105791.705287051</v>
       </c>
       <c r="F34" t="n">
-        <v>121707.741366235</v>
+        <v>118593.583616938</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>18545.0739351849</v>
+        <v>18467.7020228594</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>74240.2556648368</v>
+        <v>73705.333668044</v>
       </c>
       <c r="C35" t="n">
-        <v>45889.8252767958</v>
+        <v>42043.2787539447</v>
       </c>
       <c r="D35" t="n">
-        <v>26878.9563682504</v>
+        <v>27503.2494105514</v>
       </c>
       <c r="E35" t="n">
-        <v>103594.982572017</v>
+        <v>103516.371966223</v>
       </c>
       <c r="F35" t="n">
-        <v>124819.898037008</v>
+        <v>117312.931657978</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>23115.2556648368</v>
+        <v>22580.333668044</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>72197.0430126457</v>
+        <v>71458.4057438042</v>
       </c>
       <c r="C36" t="n">
-        <v>42920.929871924</v>
+        <v>42041.6525585161</v>
       </c>
       <c r="D36" t="n">
-        <v>23348.2721991605</v>
+        <v>25209.8784942583</v>
       </c>
       <c r="E36" t="n">
-        <v>100915.82695812</v>
+        <v>103528.630682811</v>
       </c>
       <c r="F36" t="n">
-        <v>124014.396478833</v>
+        <v>115517.242903287</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>23845.0430126457</v>
+        <v>23106.4057438042</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>69163.4658548089</v>
+        <v>68769.5318687904</v>
       </c>
       <c r="C37" t="n">
-        <v>39903.8687596199</v>
+        <v>37615.4950888019</v>
       </c>
       <c r="D37" t="n">
-        <v>18822.070949258</v>
+        <v>18466.1800238237</v>
       </c>
       <c r="E37" t="n">
-        <v>99463.5007470173</v>
+        <v>100539.555873016</v>
       </c>
       <c r="F37" t="n">
-        <v>119008.489005618</v>
+        <v>115036.216357768</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>35212.4658548089</v>
+        <v>34818.5318687904</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>91890.104153858</v>
+        <v>91307.2468623385</v>
       </c>
       <c r="C38" t="n">
-        <v>61444.3269100726</v>
+        <v>61384.2191850108</v>
       </c>
       <c r="D38" t="n">
-        <v>41840.3426495076</v>
+        <v>42214.2717377984</v>
       </c>
       <c r="E38" t="n">
-        <v>124116.033526442</v>
+        <v>122458.315779906</v>
       </c>
       <c r="F38" t="n">
-        <v>142391.454191389</v>
+        <v>135837.807077907</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>38160.104153858</v>
+        <v>37577.2468623385</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>79488.8538280036</v>
+        <v>79675.8042927966</v>
       </c>
       <c r="C39" t="n">
-        <v>48827.2500125856</v>
+        <v>50169.1884117636</v>
       </c>
       <c r="D39" t="n">
-        <v>25366.8295960036</v>
+        <v>29880.1241697837</v>
       </c>
       <c r="E39" t="n">
-        <v>110662.714313767</v>
+        <v>111967.740383936</v>
       </c>
       <c r="F39" t="n">
-        <v>133541.649573668</v>
+        <v>128231.358045264</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>7647.85382800359</v>
+        <v>7834.80429279659</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>98073.2882167298</v>
+        <v>97893.8774079854</v>
       </c>
       <c r="C40" t="n">
-        <v>66537.301578476</v>
+        <v>66763.7598144355</v>
       </c>
       <c r="D40" t="n">
-        <v>42361.7165785556</v>
+        <v>48550.6955809981</v>
       </c>
       <c r="E40" t="n">
-        <v>129844.897048172</v>
+        <v>130047.125397486</v>
       </c>
       <c r="F40" t="n">
-        <v>153377.74299857</v>
+        <v>145856.428971444</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>21742.2882167298</v>
+        <v>21562.8774079854</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/forecast/Tuberculosis.xlsx
+++ b/outcome/appendix/data/forecast/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93864.5535835892</v>
+        <v>93724.7952124949</v>
       </c>
       <c r="C2" t="n">
-        <v>86790.0302128488</v>
+        <v>86381.9944006477</v>
       </c>
       <c r="D2" t="n">
-        <v>83742.6762211104</v>
+        <v>82711.5072858846</v>
       </c>
       <c r="E2" t="n">
-        <v>100364.900474381</v>
+        <v>100670.039230604</v>
       </c>
       <c r="F2" t="n">
-        <v>104497.277391529</v>
+        <v>104150.938275208</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26182.5535835892</v>
+        <v>26042.7952124949</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81803.3303880049</v>
+        <v>81250.7509040608</v>
       </c>
       <c r="C3" t="n">
-        <v>73571.5847246819</v>
+        <v>72900.166525997</v>
       </c>
       <c r="D3" t="n">
-        <v>69278.1552921968</v>
+        <v>68034.3817964121</v>
       </c>
       <c r="E3" t="n">
-        <v>90279.6216098566</v>
+        <v>89193.1518636318</v>
       </c>
       <c r="F3" t="n">
-        <v>94451.1639124467</v>
+        <v>92981.4081801994</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36870.3303880049</v>
+        <v>36317.7509040608</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>99984.4203220445</v>
+        <v>99322.4682704668</v>
       </c>
       <c r="C4" t="n">
-        <v>91076.1005298871</v>
+        <v>90122.0763723166</v>
       </c>
       <c r="D4" t="n">
-        <v>84870.0170773359</v>
+        <v>83957.2260880002</v>
       </c>
       <c r="E4" t="n">
-        <v>109560.357056722</v>
+        <v>108835.245526515</v>
       </c>
       <c r="F4" t="n">
-        <v>114239.560061925</v>
+        <v>113624.910738093</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>26557.4203220445</v>
+        <v>25895.4682704668</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94370.6493171309</v>
+        <v>94526.8245150387</v>
       </c>
       <c r="C5" t="n">
-        <v>82976.2777251906</v>
+        <v>83781.4211672755</v>
       </c>
       <c r="D5" t="n">
-        <v>78907.1863017903</v>
+        <v>79266.7670170349</v>
       </c>
       <c r="E5" t="n">
-        <v>105055.042993559</v>
+        <v>105958.912888681</v>
       </c>
       <c r="F5" t="n">
-        <v>110566.271321822</v>
+        <v>111024.866909205</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>8686.64931713091</v>
+        <v>8842.82451503866</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91333.1641416454</v>
+        <v>91447.206674875</v>
       </c>
       <c r="C6" t="n">
-        <v>79548.8828631683</v>
+        <v>80612.8082112466</v>
       </c>
       <c r="D6" t="n">
-        <v>73122.0698847392</v>
+        <v>75304.571240084</v>
       </c>
       <c r="E6" t="n">
-        <v>102995.774394037</v>
+        <v>102431.082741856</v>
       </c>
       <c r="F6" t="n">
-        <v>107952.850544022</v>
+        <v>112059.368487845</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>7948.16414164536</v>
+        <v>8062.20667487502</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>87839.9721409315</v>
+        <v>87844.426334379</v>
       </c>
       <c r="C7" t="n">
-        <v>75180.2551393353</v>
+        <v>76336.2401867635</v>
       </c>
       <c r="D7" t="n">
-        <v>68602.3845822796</v>
+        <v>70716.2136352109</v>
       </c>
       <c r="E7" t="n">
-        <v>99835.0672624819</v>
+        <v>100426.466326066</v>
       </c>
       <c r="F7" t="n">
-        <v>104330.796182738</v>
+        <v>107039.302586677</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>2887.97214093145</v>
+        <v>2892.42633437899</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85399.205223665</v>
+        <v>85378.6919619779</v>
       </c>
       <c r="C8" t="n">
-        <v>72272.0694451466</v>
+        <v>72831.962497183</v>
       </c>
       <c r="D8" t="n">
-        <v>63656.4065309961</v>
+        <v>64903.6487507731</v>
       </c>
       <c r="E8" t="n">
-        <v>98453.9150644792</v>
+        <v>98630.4770221735</v>
       </c>
       <c r="F8" t="n">
-        <v>103871.608867243</v>
+        <v>105187.055632566</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>8976.20522366502</v>
+        <v>8955.69196197794</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82144.9903787327</v>
+        <v>82378.550636496</v>
       </c>
       <c r="C9" t="n">
-        <v>69301.4642458594</v>
+        <v>68808.5484319526</v>
       </c>
       <c r="D9" t="n">
-        <v>58854.0617842758</v>
+        <v>59448.3976400123</v>
       </c>
       <c r="E9" t="n">
-        <v>96223.0046720576</v>
+        <v>95956.0135793829</v>
       </c>
       <c r="F9" t="n">
-        <v>101237.292559002</v>
+        <v>102520.588402829</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-956.009621267265</v>
+        <v>-722.449363504042</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78192.1081079123</v>
+        <v>77737.2267249559</v>
       </c>
       <c r="C10" t="n">
-        <v>62854.3324551038</v>
+        <v>62311.1290056632</v>
       </c>
       <c r="D10" t="n">
-        <v>54622.4970798406</v>
+        <v>54902.815469378</v>
       </c>
       <c r="E10" t="n">
-        <v>93139.4885488939</v>
+        <v>93068.7580861377</v>
       </c>
       <c r="F10" t="n">
-        <v>100675.517645598</v>
+        <v>102337.093998208</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2783.10810791228</v>
+        <v>2328.22672495592</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>74998.1258900415</v>
+        <v>74738.2914922003</v>
       </c>
       <c r="C11" t="n">
-        <v>57985.1488668183</v>
+        <v>59270.3857891695</v>
       </c>
       <c r="D11" t="n">
-        <v>50594.1370974677</v>
+        <v>53160.7531587886</v>
       </c>
       <c r="E11" t="n">
-        <v>89823.8669081592</v>
+        <v>90182.1679746529</v>
       </c>
       <c r="F11" t="n">
-        <v>96999.4830534084</v>
+        <v>100314.86994493</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7155.12589004145</v>
+        <v>6895.29149220031</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72414.6527100068</v>
+        <v>71825.7734012819</v>
       </c>
       <c r="C12" t="n">
-        <v>57358.9041768817</v>
+        <v>55978.0102475163</v>
       </c>
       <c r="D12" t="n">
-        <v>46706.0236902403</v>
+        <v>49019.4790080582</v>
       </c>
       <c r="E12" t="n">
-        <v>86668.7394545777</v>
+        <v>88407.073163563</v>
       </c>
       <c r="F12" t="n">
-        <v>95711.9974885129</v>
+        <v>96826.214095175</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>2774.65271000683</v>
+        <v>2185.7734012819</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70126.303368685</v>
+        <v>69580.5408877803</v>
       </c>
       <c r="C13" t="n">
-        <v>53728.9189959949</v>
+        <v>53086.539957423</v>
       </c>
       <c r="D13" t="n">
-        <v>42127.6618256087</v>
+        <v>45430.1464443629</v>
       </c>
       <c r="E13" t="n">
-        <v>85519.7026781207</v>
+        <v>85047.9653006096</v>
       </c>
       <c r="F13" t="n">
-        <v>94929.9795073193</v>
+        <v>96034.9066627574</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>6029.30336868501</v>
+        <v>5483.54088778034</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92254.0887906876</v>
+        <v>91745.8166372382</v>
       </c>
       <c r="C14" t="n">
-        <v>74584.0853499524</v>
+        <v>73189.7948991747</v>
       </c>
       <c r="D14" t="n">
-        <v>63711.4445320515</v>
+        <v>65601.4749852937</v>
       </c>
       <c r="E14" t="n">
-        <v>109341.462768569</v>
+        <v>108956.954925639</v>
       </c>
       <c r="F14" t="n">
-        <v>115587.990271422</v>
+        <v>121253.787065452</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27441.0887906876</v>
+        <v>26932.8166372382</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80539.1249612856</v>
+        <v>79388.6794468423</v>
       </c>
       <c r="C15" t="n">
-        <v>63626.3886615531</v>
+        <v>61392.1942464277</v>
       </c>
       <c r="D15" t="n">
-        <v>48892.8013458783</v>
+        <v>52169.9298484909</v>
       </c>
       <c r="E15" t="n">
-        <v>98437.426629591</v>
+        <v>98248.7603302176</v>
       </c>
       <c r="F15" t="n">
-        <v>110790.521018879</v>
+        <v>107118.090044358</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>25114.1249612856</v>
+        <v>23963.6794468423</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>99019.2631858125</v>
+        <v>97780.4068471566</v>
       </c>
       <c r="C16" t="n">
-        <v>81681.503466992</v>
+        <v>77672.9838186417</v>
       </c>
       <c r="D16" t="n">
-        <v>68612.9701096183</v>
+        <v>67678.9124075895</v>
       </c>
       <c r="E16" t="n">
-        <v>117647.929134654</v>
+        <v>115459.006588642</v>
       </c>
       <c r="F16" t="n">
-        <v>125597.981396689</v>
+        <v>125528.960433179</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18216.2631858125</v>
+        <v>16977.4068471566</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93807.5791541159</v>
+        <v>92414.0709235031</v>
       </c>
       <c r="C17" t="n">
-        <v>73454.1362426561</v>
+        <v>71976.764215129</v>
       </c>
       <c r="D17" t="n">
-        <v>61101.6191617987</v>
+        <v>62935.3073986448</v>
       </c>
       <c r="E17" t="n">
-        <v>112431.602220523</v>
+        <v>112477.390286927</v>
       </c>
       <c r="F17" t="n">
-        <v>121467.271910134</v>
+        <v>122226.477527038</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>13259.5791541159</v>
+        <v>11866.0709235031</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90585.7499396104</v>
+        <v>89556.8374092113</v>
       </c>
       <c r="C18" t="n">
-        <v>70127.9660106453</v>
+        <v>67836.5416499406</v>
       </c>
       <c r="D18" t="n">
-        <v>59047.7560867589</v>
+        <v>58487.8791016746</v>
       </c>
       <c r="E18" t="n">
-        <v>110542.975242249</v>
+        <v>110450.285416671</v>
       </c>
       <c r="F18" t="n">
-        <v>120501.675152435</v>
+        <v>119892.085583458</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15342.7499396104</v>
+        <v>14313.8374092113</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>87244.9535135292</v>
+        <v>85912.7719089602</v>
       </c>
       <c r="C19" t="n">
-        <v>67290.6717470307</v>
+        <v>64718.2255731777</v>
       </c>
       <c r="D19" t="n">
-        <v>51640.8172879665</v>
+        <v>53815.7993385331</v>
       </c>
       <c r="E19" t="n">
-        <v>109308.611751906</v>
+        <v>107997.350276441</v>
       </c>
       <c r="F19" t="n">
-        <v>115087.819737925</v>
+        <v>117421.399132058</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>13360.9535135292</v>
+        <v>12028.7719089602</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84596.4331534815</v>
+        <v>83797.4441571032</v>
       </c>
       <c r="C20" t="n">
-        <v>63066.4005675098</v>
+        <v>61095.538034009</v>
       </c>
       <c r="D20" t="n">
-        <v>52201.1408759399</v>
+        <v>49979.7223198474</v>
       </c>
       <c r="E20" t="n">
-        <v>106381.826463844</v>
+        <v>105371.467436059</v>
       </c>
       <c r="F20" t="n">
-        <v>116815.899179406</v>
+        <v>117004.647159659</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7948.43315348151</v>
+        <v>7149.44415710318</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81856.0023850813</v>
+        <v>80026.6499765363</v>
       </c>
       <c r="C21" t="n">
-        <v>60524.4345161772</v>
+        <v>57501.5352287148</v>
       </c>
       <c r="D21" t="n">
-        <v>47204.0702036865</v>
+        <v>46190.3164258848</v>
       </c>
       <c r="E21" t="n">
-        <v>103289.797864503</v>
+        <v>103875.824312881</v>
       </c>
       <c r="F21" t="n">
-        <v>113540.303956621</v>
+        <v>114496.316949714</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13890.0023850813</v>
+        <v>12060.6499765363</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77587.8234761076</v>
+        <v>75875.1419074659</v>
       </c>
       <c r="C22" t="n">
-        <v>54119.9105516488</v>
+        <v>52502.0871963252</v>
       </c>
       <c r="D22" t="n">
-        <v>41283.9934301555</v>
+        <v>40778.8637086289</v>
       </c>
       <c r="E22" t="n">
-        <v>101056.358518168</v>
+        <v>100527.426784146</v>
       </c>
       <c r="F22" t="n">
-        <v>109887.846553225</v>
+        <v>113330.352504909</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9775.82347610757</v>
+        <v>8063.14190746588</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74281.9183912184</v>
+        <v>72680.6296786404</v>
       </c>
       <c r="C23" t="n">
-        <v>52385.6808859511</v>
+        <v>49446.0027324768</v>
       </c>
       <c r="D23" t="n">
-        <v>35440.3484994713</v>
+        <v>38845.6323093907</v>
       </c>
       <c r="E23" t="n">
-        <v>96913.7428580801</v>
+        <v>98092.7759254637</v>
       </c>
       <c r="F23" t="n">
-        <v>108629.380542195</v>
+        <v>108904.890578434</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>12890.9183912184</v>
+        <v>11289.6296786404</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>71737.9219645245</v>
+        <v>70268.9504645545</v>
       </c>
       <c r="C24" t="n">
-        <v>47610.3032341187</v>
+        <v>47988.8901842027</v>
       </c>
       <c r="D24" t="n">
-        <v>36812.8575889508</v>
+        <v>34080.5566505007</v>
       </c>
       <c r="E24" t="n">
-        <v>95271.2651205831</v>
+        <v>95875.6763732925</v>
       </c>
       <c r="F24" t="n">
-        <v>105270.223096585</v>
+        <v>107464.745515324</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>9984.9219645245</v>
+        <v>8515.95046455451</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69164.7669112559</v>
+        <v>67528.5990253503</v>
       </c>
       <c r="C25" t="n">
-        <v>46023.4000171812</v>
+        <v>42852.685200225</v>
       </c>
       <c r="D25" t="n">
-        <v>29337.6415722537</v>
+        <v>32265.9371979381</v>
       </c>
       <c r="E25" t="n">
-        <v>93305.6845723679</v>
+        <v>91630.8450893133</v>
       </c>
       <c r="F25" t="n">
-        <v>105749.1169776</v>
+        <v>105300.957965771</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>7376.76691125589</v>
+        <v>5740.59902535027</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>91658.0932788243</v>
+        <v>90216.2205435528</v>
       </c>
       <c r="C26" t="n">
-        <v>64140.2034563845</v>
+        <v>64179.1050126111</v>
       </c>
       <c r="D26" t="n">
-        <v>51606.5840840436</v>
+        <v>49718.0375543406</v>
       </c>
       <c r="E26" t="n">
-        <v>116222.53583454</v>
+        <v>116301.080774758</v>
       </c>
       <c r="F26" t="n">
-        <v>128034.972340654</v>
+        <v>128429.599987575</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>29961.0932788243</v>
+        <v>28519.2205435528</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>79742.786935337</v>
+        <v>77647.1052581187</v>
       </c>
       <c r="C27" t="n">
-        <v>52454.6636852206</v>
+        <v>49853.143899104</v>
       </c>
       <c r="D27" t="n">
-        <v>39992.8011188172</v>
+        <v>41089.6522173471</v>
       </c>
       <c r="E27" t="n">
-        <v>104393.342290769</v>
+        <v>103180.14660873</v>
       </c>
       <c r="F27" t="n">
-        <v>121246.445678249</v>
+        <v>115860.135742282</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>27146.786935337</v>
+        <v>25051.1052581187</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>97953.2750725294</v>
+        <v>96162.3866506962</v>
       </c>
       <c r="C28" t="n">
-        <v>70873.5988640352</v>
+        <v>69581.8711379818</v>
       </c>
       <c r="D28" t="n">
-        <v>58977.2442168295</v>
+        <v>57203.8991110178</v>
       </c>
       <c r="E28" t="n">
-        <v>122808.031591781</v>
+        <v>122679.605279131</v>
       </c>
       <c r="F28" t="n">
-        <v>136125.708280729</v>
+        <v>136467.047484477</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>24843.2750725294</v>
+        <v>23052.3866506962</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>92876.1618108653</v>
+        <v>90068.9338989687</v>
       </c>
       <c r="C29" t="n">
-        <v>66331.2887483504</v>
+        <v>62619.4034979738</v>
       </c>
       <c r="D29" t="n">
-        <v>49843.4164055269</v>
+        <v>50785.2287534098</v>
       </c>
       <c r="E29" t="n">
-        <v>118767.639758932</v>
+        <v>117677.368293775</v>
       </c>
       <c r="F29" t="n">
-        <v>133891.828537316</v>
+        <v>133634.271474732</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>31691.1618108653</v>
+        <v>28883.9338989687</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>89992.2274558397</v>
+        <v>87416.9192660741</v>
       </c>
       <c r="C30" t="n">
-        <v>63959.7240166082</v>
+        <v>58722.771816526</v>
       </c>
       <c r="D30" t="n">
-        <v>46191.5368581186</v>
+        <v>44233.8881970603</v>
       </c>
       <c r="E30" t="n">
-        <v>114255.279075629</v>
+        <v>113623.56805404</v>
       </c>
       <c r="F30" t="n">
-        <v>131181.892464732</v>
+        <v>129444.27690001</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26402.2274558397</v>
+        <v>23826.9192660741</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86611.1786094474</v>
+        <v>83487.5877879679</v>
       </c>
       <c r="C31" t="n">
-        <v>57280.1159543875</v>
+        <v>55537.1855782155</v>
       </c>
       <c r="D31" t="n">
-        <v>44058.4889278713</v>
+        <v>41025.7581249333</v>
       </c>
       <c r="E31" t="n">
-        <v>113462.845528297</v>
+        <v>114249.0101311</v>
       </c>
       <c r="F31" t="n">
-        <v>128797.974753788</v>
+        <v>125771.441152055</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>18710.1786094474</v>
+        <v>15586.5877879679</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84704.7723837636</v>
+        <v>81278.021495264</v>
       </c>
       <c r="C32" t="n">
-        <v>56106.2682916912</v>
+        <v>51128.7137989781</v>
       </c>
       <c r="D32" t="n">
-        <v>39405.2512458661</v>
+        <v>36287.9432753271</v>
       </c>
       <c r="E32" t="n">
-        <v>111987.595309265</v>
+        <v>109880.890141273</v>
       </c>
       <c r="F32" t="n">
-        <v>126835.946290131</v>
+        <v>126447.918564156</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>13282.7723837636</v>
+        <v>9856.02149526398</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81751.7385932164</v>
+        <v>78046.7509044732</v>
       </c>
       <c r="C33" t="n">
-        <v>52995.421414872</v>
+        <v>48168.2888493059</v>
       </c>
       <c r="D33" t="n">
-        <v>38018.4151895683</v>
+        <v>32867.6767182548</v>
       </c>
       <c r="E33" t="n">
-        <v>111883.136323742</v>
+        <v>107304.282981661</v>
       </c>
       <c r="F33" t="n">
-        <v>122978.274433813</v>
+        <v>125661.225303359</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>12732.7385932164</v>
+        <v>9027.75090447324</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>77105.7020228594</v>
+        <v>73872.8478370649</v>
       </c>
       <c r="C34" t="n">
-        <v>48121.1082590161</v>
+        <v>42142.4419006226</v>
       </c>
       <c r="D34" t="n">
-        <v>34373.9126015178</v>
+        <v>26300.0879691591</v>
       </c>
       <c r="E34" t="n">
-        <v>105791.705287051</v>
+        <v>106468.628388819</v>
       </c>
       <c r="F34" t="n">
-        <v>118593.583616938</v>
+        <v>119026.634333274</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>18467.7020228594</v>
+        <v>15234.8478370649</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>73705.333668044</v>
+        <v>71079.7943860553</v>
       </c>
       <c r="C35" t="n">
-        <v>42043.2787539447</v>
+        <v>39905.5751143391</v>
       </c>
       <c r="D35" t="n">
-        <v>27503.2494105514</v>
+        <v>23400.3437671694</v>
       </c>
       <c r="E35" t="n">
-        <v>103516.371966223</v>
+        <v>102206.101983487</v>
       </c>
       <c r="F35" t="n">
-        <v>117312.931657978</v>
+        <v>118940.869748838</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>22580.333668044</v>
+        <v>19954.7943860553</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>71458.4057438042</v>
+        <v>68560.7016430336</v>
       </c>
       <c r="C36" t="n">
-        <v>42041.6525585161</v>
+        <v>36998.5864897146</v>
       </c>
       <c r="D36" t="n">
-        <v>25209.8784942583</v>
+        <v>18468.0626767382</v>
       </c>
       <c r="E36" t="n">
-        <v>103528.630682811</v>
+        <v>101687.501597271</v>
       </c>
       <c r="F36" t="n">
-        <v>115517.242903287</v>
+        <v>116334.329270153</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>23106.4057438042</v>
+        <v>20208.7016430336</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>68769.5318687904</v>
+        <v>65651.3994320172</v>
       </c>
       <c r="C37" t="n">
-        <v>37615.4950888019</v>
+        <v>35446.3771974018</v>
       </c>
       <c r="D37" t="n">
-        <v>18466.1800238237</v>
+        <v>17812.633180962</v>
       </c>
       <c r="E37" t="n">
-        <v>100539.555873016</v>
+        <v>97094.0154830323</v>
       </c>
       <c r="F37" t="n">
-        <v>115036.216357768</v>
+        <v>112946.133536298</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>34818.5318687904</v>
+        <v>31700.3994320172</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>91307.2468623385</v>
+        <v>88452.4177981939</v>
       </c>
       <c r="C38" t="n">
-        <v>61384.2191850108</v>
+        <v>56696.8720130677</v>
       </c>
       <c r="D38" t="n">
-        <v>42214.2717377984</v>
+        <v>39433.8454994111</v>
       </c>
       <c r="E38" t="n">
-        <v>122458.315779906</v>
+        <v>120917.579682679</v>
       </c>
       <c r="F38" t="n">
-        <v>135837.807077907</v>
+        <v>137502.053666727</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>37577.2468623385</v>
+        <v>34722.4177981939</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>79675.8042927966</v>
+        <v>76638.5128838243</v>
       </c>
       <c r="C39" t="n">
-        <v>50169.1884117636</v>
+        <v>42150.5141931128</v>
       </c>
       <c r="D39" t="n">
-        <v>29880.1241697837</v>
+        <v>26248.2290430655</v>
       </c>
       <c r="E39" t="n">
-        <v>111967.740383936</v>
+        <v>108121.619717342</v>
       </c>
       <c r="F39" t="n">
-        <v>128231.358045264</v>
+        <v>127835.716959645</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>7834.80429279659</v>
+        <v>4797.5128838243</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>97893.8774079854</v>
+        <v>94338.2280404116</v>
       </c>
       <c r="C40" t="n">
-        <v>66763.7598144355</v>
+        <v>60879.7613578259</v>
       </c>
       <c r="D40" t="n">
-        <v>48550.6955809981</v>
+        <v>44979.5945451391</v>
       </c>
       <c r="E40" t="n">
-        <v>130047.125397486</v>
+        <v>129085.458597445</v>
       </c>
       <c r="F40" t="n">
-        <v>145856.428971444</v>
+        <v>147883.672089586</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>21562.8774079854</v>
+        <v>18007.2280404116</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/forecast/Tuberculosis.xlsx
+++ b/outcome/appendix/data/forecast/Tuberculosis.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">肺结核</t>
+    <t xml:space="preserve">Tuberculosis</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93724.7952124949</v>
+        <v>76058.6669505448</v>
       </c>
       <c r="C2" t="n">
-        <v>86381.9944006477</v>
+        <v>65816.9938808343</v>
       </c>
       <c r="D2" t="n">
-        <v>82711.5072858846</v>
+        <v>61352.0518525258</v>
       </c>
       <c r="E2" t="n">
-        <v>100670.039230604</v>
+        <v>85802.1983974456</v>
       </c>
       <c r="F2" t="n">
-        <v>104150.938275208</v>
+        <v>90043.4246387588</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26042.7952124949</v>
+        <v>8376.66695054479</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81250.7509040608</v>
+        <v>71103.198451947</v>
       </c>
       <c r="C3" t="n">
-        <v>72900.166525997</v>
+        <v>62369.2027954493</v>
       </c>
       <c r="D3" t="n">
-        <v>68034.3817964121</v>
+        <v>58718.1486506973</v>
       </c>
       <c r="E3" t="n">
-        <v>89193.1518636318</v>
+        <v>80356.9597341114</v>
       </c>
       <c r="F3" t="n">
-        <v>92981.4081801994</v>
+        <v>85746.1934072028</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36317.7509040608</v>
+        <v>26170.198451947</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>99322.4682704668</v>
+        <v>101324.558755105</v>
       </c>
       <c r="C4" t="n">
-        <v>90122.0763723166</v>
+        <v>92908.4415163261</v>
       </c>
       <c r="D4" t="n">
-        <v>83957.2260880002</v>
+        <v>88263.6923961352</v>
       </c>
       <c r="E4" t="n">
-        <v>108835.245526515</v>
+        <v>109725.825606414</v>
       </c>
       <c r="F4" t="n">
-        <v>113624.910738093</v>
+        <v>113923.755264679</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>25895.4682704668</v>
+        <v>27897.5587551051</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94526.8245150387</v>
+        <v>97421.3891170153</v>
       </c>
       <c r="C5" t="n">
-        <v>83781.4211672755</v>
+        <v>88004.3350233479</v>
       </c>
       <c r="D5" t="n">
-        <v>79266.7670170349</v>
+        <v>83130.9055618519</v>
       </c>
       <c r="E5" t="n">
-        <v>105958.912888681</v>
+        <v>106190.640244216</v>
       </c>
       <c r="F5" t="n">
-        <v>111024.866909205</v>
+        <v>110827.002809828</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>8842.82451503866</v>
+        <v>11737.3891170153</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91447.206674875</v>
+        <v>93735.4621817638</v>
       </c>
       <c r="C6" t="n">
-        <v>80612.8082112466</v>
+        <v>84394.6997921297</v>
       </c>
       <c r="D6" t="n">
-        <v>75304.571240084</v>
+        <v>79340.4294335717</v>
       </c>
       <c r="E6" t="n">
-        <v>102431.082741856</v>
+        <v>103243.727504873</v>
       </c>
       <c r="F6" t="n">
-        <v>112059.368487845</v>
+        <v>107515.789966429</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8062.20667487502</v>
+        <v>10350.4621817638</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>87844.426334379</v>
+        <v>89640.7916320238</v>
       </c>
       <c r="C7" t="n">
-        <v>76336.2401867635</v>
+        <v>80228.1582127822</v>
       </c>
       <c r="D7" t="n">
-        <v>70716.2136352109</v>
+        <v>74664.9027966265</v>
       </c>
       <c r="E7" t="n">
-        <v>100426.466326066</v>
+        <v>99283.3117472104</v>
       </c>
       <c r="F7" t="n">
-        <v>107039.302586677</v>
+        <v>103761.410208594</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>2892.42633437899</v>
+        <v>4688.79163202383</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85378.6919619779</v>
+        <v>88255.8603073016</v>
       </c>
       <c r="C8" t="n">
-        <v>72831.962497183</v>
+        <v>79043.7967277507</v>
       </c>
       <c r="D8" t="n">
-        <v>64903.6487507731</v>
+        <v>75115.8934992082</v>
       </c>
       <c r="E8" t="n">
-        <v>98630.4770221735</v>
+        <v>96662.4883232987</v>
       </c>
       <c r="F8" t="n">
-        <v>105187.055632566</v>
+        <v>99638.381735002</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>8955.69196197794</v>
+        <v>11832.8603073016</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,31 +651,31 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82378.550636496</v>
+        <v>83750.6154189925</v>
       </c>
       <c r="C9" t="n">
-        <v>68808.5484319526</v>
+        <v>74349.9664709751</v>
       </c>
       <c r="D9" t="n">
-        <v>59448.3976400123</v>
+        <v>69591.7584496787</v>
       </c>
       <c r="E9" t="n">
-        <v>95956.0135793829</v>
+        <v>93359.3325910496</v>
       </c>
       <c r="F9" t="n">
-        <v>102520.588402829</v>
+        <v>100373.745301926</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>83101</v>
+        <v>76423</v>
       </c>
       <c r="I9" t="n">
-        <v>-722.449363504042</v>
+        <v>7327.6154189925</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>77737.2267249559</v>
+        <v>80726.8815142626</v>
       </c>
       <c r="C10" t="n">
-        <v>62311.1290056632</v>
+        <v>70583.4967357986</v>
       </c>
       <c r="D10" t="n">
-        <v>54902.815469378</v>
+        <v>64906.5272520552</v>
       </c>
       <c r="E10" t="n">
-        <v>93068.7580861377</v>
+        <v>91341.434807293</v>
       </c>
       <c r="F10" t="n">
-        <v>102337.093998208</v>
+        <v>95031.6623971128</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2328.22672495592</v>
+        <v>5317.88151426258</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>74738.2914922003</v>
+        <v>72656.0864409387</v>
       </c>
       <c r="C11" t="n">
-        <v>59270.3857891695</v>
+        <v>63980.6705631857</v>
       </c>
       <c r="D11" t="n">
-        <v>53160.7531587886</v>
+        <v>60945.9218284424</v>
       </c>
       <c r="E11" t="n">
-        <v>90182.1679746529</v>
+        <v>81910.1393627078</v>
       </c>
       <c r="F11" t="n">
-        <v>100314.86994493</v>
+        <v>87039.0851137194</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>6895.29149220031</v>
+        <v>4813.08644093867</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>71825.7734012819</v>
+        <v>75392.3984119033</v>
       </c>
       <c r="C12" t="n">
-        <v>55978.0102475163</v>
+        <v>66809.4398641828</v>
       </c>
       <c r="D12" t="n">
-        <v>49019.4790080582</v>
+        <v>61603.3182634011</v>
       </c>
       <c r="E12" t="n">
-        <v>88407.073163563</v>
+        <v>84061.2920293156</v>
       </c>
       <c r="F12" t="n">
-        <v>96826.214095175</v>
+        <v>87928.3952115976</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>2185.7734012819</v>
+        <v>5752.39841190331</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>69580.5408877803</v>
+        <v>74100.417321842</v>
       </c>
       <c r="C13" t="n">
-        <v>53086.539957423</v>
+        <v>64189.9339142953</v>
       </c>
       <c r="D13" t="n">
-        <v>45430.1464443629</v>
+        <v>57935.2178697959</v>
       </c>
       <c r="E13" t="n">
-        <v>85047.9653006096</v>
+        <v>83883.2043205194</v>
       </c>
       <c r="F13" t="n">
-        <v>96034.9066627574</v>
+        <v>87736.2398766564</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>5483.54088778034</v>
+        <v>10003.417321842</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>91745.8166372382</v>
+        <v>71834.0649501758</v>
       </c>
       <c r="C14" t="n">
-        <v>73189.7948991747</v>
+        <v>60763.3110285584</v>
       </c>
       <c r="D14" t="n">
-        <v>65601.4749852937</v>
+        <v>55741.5066295272</v>
       </c>
       <c r="E14" t="n">
-        <v>108956.954925639</v>
+        <v>83089.0459978857</v>
       </c>
       <c r="F14" t="n">
-        <v>121253.787065452</v>
+        <v>87486.9270546769</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>26932.8166372382</v>
+        <v>7021.06495017582</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>79388.6794468423</v>
+        <v>68420.4078843163</v>
       </c>
       <c r="C15" t="n">
-        <v>61392.1942464277</v>
+        <v>58465.9830853916</v>
       </c>
       <c r="D15" t="n">
-        <v>52169.9298484909</v>
+        <v>52124.9662285213</v>
       </c>
       <c r="E15" t="n">
-        <v>98248.7603302176</v>
+        <v>79346.1689197092</v>
       </c>
       <c r="F15" t="n">
-        <v>107118.090044358</v>
+        <v>84265.1312347598</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>23963.6794468423</v>
+        <v>12995.4078843163</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>97780.4068471566</v>
+        <v>98598.6677387737</v>
       </c>
       <c r="C16" t="n">
-        <v>77672.9838186417</v>
+        <v>89073.7966136857</v>
       </c>
       <c r="D16" t="n">
-        <v>67678.9124075895</v>
+        <v>83686.2742029223</v>
       </c>
       <c r="E16" t="n">
-        <v>115459.006588642</v>
+        <v>108104.096115048</v>
       </c>
       <c r="F16" t="n">
-        <v>125528.960433179</v>
+        <v>113999.182654908</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>16977.4068471566</v>
+        <v>17795.6677387737</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>92414.0709235031</v>
+        <v>93810.2837029956</v>
       </c>
       <c r="C17" t="n">
-        <v>71976.764215129</v>
+        <v>83830.3876340301</v>
       </c>
       <c r="D17" t="n">
-        <v>62935.3073986448</v>
+        <v>77512.0538611598</v>
       </c>
       <c r="E17" t="n">
-        <v>112477.390286927</v>
+        <v>104029.472748535</v>
       </c>
       <c r="F17" t="n">
-        <v>122226.477527038</v>
+        <v>108815.104446371</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>11866.0709235031</v>
+        <v>13262.2837029956</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>89556.8374092113</v>
+        <v>90070.169257137</v>
       </c>
       <c r="C18" t="n">
-        <v>67836.5416499406</v>
+        <v>80257.6125761676</v>
       </c>
       <c r="D18" t="n">
-        <v>58487.8791016746</v>
+        <v>76173.3476682402</v>
       </c>
       <c r="E18" t="n">
-        <v>110450.285416671</v>
+        <v>99041.7347582554</v>
       </c>
       <c r="F18" t="n">
-        <v>119892.085583458</v>
+        <v>103730.086717645</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>14313.8374092113</v>
+        <v>14827.169257137</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>85912.7719089602</v>
+        <v>85881.0336740811</v>
       </c>
       <c r="C19" t="n">
-        <v>64718.2255731777</v>
+        <v>75033.7888966378</v>
       </c>
       <c r="D19" t="n">
-        <v>53815.7993385331</v>
+        <v>69165.6118014313</v>
       </c>
       <c r="E19" t="n">
-        <v>107997.350276441</v>
+        <v>95845.9187899976</v>
       </c>
       <c r="F19" t="n">
-        <v>117421.399132058</v>
+        <v>100852.254171585</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>12028.7719089602</v>
+        <v>11997.0336740811</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>83797.4441571032</v>
+        <v>84618.5206784737</v>
       </c>
       <c r="C20" t="n">
-        <v>61095.538034009</v>
+        <v>73976.5022195344</v>
       </c>
       <c r="D20" t="n">
-        <v>49979.7223198474</v>
+        <v>69462.4714956766</v>
       </c>
       <c r="E20" t="n">
-        <v>105371.467436059</v>
+        <v>95535.1818729681</v>
       </c>
       <c r="F20" t="n">
-        <v>117004.647159659</v>
+        <v>100188.081558761</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7149.44415710318</v>
+        <v>7970.52067847365</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>80026.6499765363</v>
+        <v>81682.4449183012</v>
       </c>
       <c r="C21" t="n">
-        <v>57501.5352287148</v>
+        <v>71002.9656084376</v>
       </c>
       <c r="D21" t="n">
-        <v>46190.3164258848</v>
+        <v>65404.9986715284</v>
       </c>
       <c r="E21" t="n">
-        <v>103875.824312881</v>
+        <v>92425.4318003658</v>
       </c>
       <c r="F21" t="n">
-        <v>114496.316949714</v>
+        <v>99104.4481301872</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>12060.6499765363</v>
+        <v>13716.4449183012</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>75875.1419074659</v>
+        <v>76536.5123785221</v>
       </c>
       <c r="C22" t="n">
-        <v>52502.0871963252</v>
+        <v>66653.4557672961</v>
       </c>
       <c r="D22" t="n">
-        <v>40778.8637086289</v>
+        <v>62416.3724210235</v>
       </c>
       <c r="E22" t="n">
-        <v>100527.426784146</v>
+        <v>86943.3749081003</v>
       </c>
       <c r="F22" t="n">
-        <v>113330.352504909</v>
+        <v>91212.0802357506</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>8063.14190746588</v>
+        <v>8724.51237852211</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>72680.6296786404</v>
+        <v>69554.6387335136</v>
       </c>
       <c r="C23" t="n">
-        <v>49446.0027324768</v>
+        <v>59315.4926029524</v>
       </c>
       <c r="D23" t="n">
-        <v>38845.6323093907</v>
+        <v>54954.5551296895</v>
       </c>
       <c r="E23" t="n">
-        <v>98092.7759254637</v>
+        <v>80360.9575743668</v>
       </c>
       <c r="F23" t="n">
-        <v>108904.890578434</v>
+        <v>86553.0202616869</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>11289.6296786404</v>
+        <v>8163.63873351355</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>70268.9504645545</v>
+        <v>71182.7165996807</v>
       </c>
       <c r="C24" t="n">
-        <v>47988.8901842027</v>
+        <v>60659.3222388759</v>
       </c>
       <c r="D24" t="n">
-        <v>34080.5566505007</v>
+        <v>56564.3438155346</v>
       </c>
       <c r="E24" t="n">
-        <v>95875.6763732925</v>
+        <v>80943.888888426</v>
       </c>
       <c r="F24" t="n">
-        <v>107464.745515324</v>
+        <v>86241.0351243605</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>8515.95046455451</v>
+        <v>9429.71659968072</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>67528.5990253503</v>
+        <v>71373.2232571939</v>
       </c>
       <c r="C25" t="n">
-        <v>42852.685200225</v>
+        <v>59923.9198514944</v>
       </c>
       <c r="D25" t="n">
-        <v>32265.9371979381</v>
+        <v>53770.4205362018</v>
       </c>
       <c r="E25" t="n">
-        <v>91630.8450893133</v>
+        <v>82572.5421821429</v>
       </c>
       <c r="F25" t="n">
-        <v>105300.957965771</v>
+        <v>90311.0990265859</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>5740.59902535027</v>
+        <v>9585.22325719387</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>90216.2205435528</v>
+        <v>69281.9485679546</v>
       </c>
       <c r="C26" t="n">
-        <v>64179.1050126111</v>
+        <v>58560.15507813</v>
       </c>
       <c r="D26" t="n">
-        <v>49718.0375543406</v>
+        <v>54301.8710811231</v>
       </c>
       <c r="E26" t="n">
-        <v>116301.080774758</v>
+        <v>80346.6766889944</v>
       </c>
       <c r="F26" t="n">
-        <v>128429.599987575</v>
+        <v>86930.5851354849</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>28519.2205435528</v>
+        <v>7584.94856795456</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>77647.1052581187</v>
+        <v>64593.430165873</v>
       </c>
       <c r="C27" t="n">
-        <v>49853.143899104</v>
+        <v>54197.7963034847</v>
       </c>
       <c r="D27" t="n">
-        <v>41089.6522173471</v>
+        <v>47595.3840503633</v>
       </c>
       <c r="E27" t="n">
-        <v>103180.14660873</v>
+        <v>75518.0252158612</v>
       </c>
       <c r="F27" t="n">
-        <v>115860.135742282</v>
+        <v>81620.2301214559</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>25051.1052581187</v>
+        <v>11997.430165873</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>96162.3866506962</v>
+        <v>94906.1962036138</v>
       </c>
       <c r="C28" t="n">
-        <v>69581.8711379818</v>
+        <v>84010.8743765994</v>
       </c>
       <c r="D28" t="n">
-        <v>57203.8991110178</v>
+        <v>78579.9717202609</v>
       </c>
       <c r="E28" t="n">
-        <v>122679.605279131</v>
+        <v>105882.726593081</v>
       </c>
       <c r="F28" t="n">
-        <v>136467.047484477</v>
+        <v>111018.177777043</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>23052.3866506962</v>
+        <v>21796.1962036138</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>90068.9338989687</v>
+        <v>90596.8770354144</v>
       </c>
       <c r="C29" t="n">
-        <v>62619.4034979738</v>
+        <v>78882.9033077696</v>
       </c>
       <c r="D29" t="n">
-        <v>50785.2287534098</v>
+        <v>74130.6700899593</v>
       </c>
       <c r="E29" t="n">
-        <v>117677.368293775</v>
+        <v>102371.075051183</v>
       </c>
       <c r="F29" t="n">
-        <v>133634.271474732</v>
+        <v>106513.575908165</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>28883.9338989687</v>
+        <v>29411.8770354144</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>87416.9192660741</v>
+        <v>87695.2982978168</v>
       </c>
       <c r="C30" t="n">
-        <v>58722.771816526</v>
+        <v>76205.4997756054</v>
       </c>
       <c r="D30" t="n">
-        <v>44233.8881970603</v>
+        <v>70655.9319922489</v>
       </c>
       <c r="E30" t="n">
-        <v>113623.56805404</v>
+        <v>98972.6917779441</v>
       </c>
       <c r="F30" t="n">
-        <v>129444.27690001</v>
+        <v>105243.267007755</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>23826.9192660741</v>
+        <v>24105.2982978168</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>83487.5877879679</v>
+        <v>82595.7754846212</v>
       </c>
       <c r="C31" t="n">
-        <v>55537.1855782155</v>
+        <v>71253.3231641734</v>
       </c>
       <c r="D31" t="n">
-        <v>41025.7581249333</v>
+        <v>64922.5628766355</v>
       </c>
       <c r="E31" t="n">
-        <v>114249.0101311</v>
+        <v>93949.5887852478</v>
       </c>
       <c r="F31" t="n">
-        <v>125771.441152055</v>
+        <v>98299.6186887938</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>15586.5877879679</v>
+        <v>14694.7754846212</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>81278.021495264</v>
+        <v>80697.5641141592</v>
       </c>
       <c r="C32" t="n">
-        <v>51128.7137989781</v>
+        <v>67809.3224974755</v>
       </c>
       <c r="D32" t="n">
-        <v>36287.9432753271</v>
+        <v>63957.5440368129</v>
       </c>
       <c r="E32" t="n">
-        <v>109880.890141273</v>
+        <v>92507.29108991</v>
       </c>
       <c r="F32" t="n">
-        <v>126447.918564156</v>
+        <v>99017.4764471337</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>9856.02149526398</v>
+        <v>9275.56411415924</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>78046.7509044732</v>
+        <v>77604.7702326643</v>
       </c>
       <c r="C33" t="n">
-        <v>48168.2888493059</v>
+        <v>65613.2432513109</v>
       </c>
       <c r="D33" t="n">
-        <v>32867.6767182548</v>
+        <v>60047.7328465576</v>
       </c>
       <c r="E33" t="n">
-        <v>107304.282981661</v>
+        <v>89286.8783065844</v>
       </c>
       <c r="F33" t="n">
-        <v>125661.225303359</v>
+        <v>93882.7583665192</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>9027.75090447324</v>
+        <v>8585.77023266429</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>73872.8478370649</v>
+        <v>73155.9601031398</v>
       </c>
       <c r="C34" t="n">
-        <v>42142.4419006226</v>
+        <v>61694.4162576925</v>
       </c>
       <c r="D34" t="n">
-        <v>26300.0879691591</v>
+        <v>56256.2893923597</v>
       </c>
       <c r="E34" t="n">
-        <v>106468.628388819</v>
+        <v>84712.5102135818</v>
       </c>
       <c r="F34" t="n">
-        <v>119026.634333274</v>
+        <v>89847.5350041539</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>15234.8478370649</v>
+        <v>14517.9601031398</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>71079.7943860553</v>
+        <v>66421.1252735992</v>
       </c>
       <c r="C35" t="n">
-        <v>39905.5751143391</v>
+        <v>54638.7663367357</v>
       </c>
       <c r="D35" t="n">
-        <v>23400.3437671694</v>
+        <v>47862.2053859851</v>
       </c>
       <c r="E35" t="n">
-        <v>102206.101983487</v>
+        <v>78778.7257669621</v>
       </c>
       <c r="F35" t="n">
-        <v>118940.869748838</v>
+        <v>83549.9240050084</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>19954.7943860553</v>
+        <v>15296.1252735992</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>68560.7016430336</v>
+        <v>68904.2186649911</v>
       </c>
       <c r="C36" t="n">
-        <v>36998.5864897146</v>
+        <v>56466.8027645694</v>
       </c>
       <c r="D36" t="n">
-        <v>18468.0626767382</v>
+        <v>49032.3704827831</v>
       </c>
       <c r="E36" t="n">
-        <v>101687.501597271</v>
+        <v>81459.4676567112</v>
       </c>
       <c r="F36" t="n">
-        <v>116334.329270153</v>
+        <v>87676.7941039199</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>20208.7016430336</v>
+        <v>20552.2186649911</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>65651.3994320172</v>
+        <v>68590.1299723194</v>
       </c>
       <c r="C37" t="n">
-        <v>35446.3771974018</v>
+        <v>56524.3528055816</v>
       </c>
       <c r="D37" t="n">
-        <v>17812.633180962</v>
+        <v>49305.1065242872</v>
       </c>
       <c r="E37" t="n">
-        <v>97094.0154830323</v>
+        <v>81025.3867263708</v>
       </c>
       <c r="F37" t="n">
-        <v>112946.133536298</v>
+        <v>86364.2970736267</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>31700.3994320172</v>
+        <v>34639.1299723194</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>88452.4177981939</v>
+        <v>65630.8362440406</v>
       </c>
       <c r="C38" t="n">
-        <v>56696.8720130677</v>
+        <v>53456.1945670288</v>
       </c>
       <c r="D38" t="n">
-        <v>39433.8454994111</v>
+        <v>48692.0643847349</v>
       </c>
       <c r="E38" t="n">
-        <v>120917.579682679</v>
+        <v>78119.7602978443</v>
       </c>
       <c r="F38" t="n">
-        <v>137502.053666727</v>
+        <v>86596.6178484764</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>34722.4177981939</v>
+        <v>11900.8362440406</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>76638.5128838243</v>
+        <v>61281.9256446817</v>
       </c>
       <c r="C39" t="n">
-        <v>42150.5141931128</v>
+        <v>49347.3825449115</v>
       </c>
       <c r="D39" t="n">
-        <v>26248.2290430655</v>
+        <v>42455.6669657849</v>
       </c>
       <c r="E39" t="n">
-        <v>108121.619717342</v>
+        <v>75786.5093092571</v>
       </c>
       <c r="F39" t="n">
-        <v>127835.716959645</v>
+        <v>81364.0794162645</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,10 +1632,10 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>4797.5128838243</v>
+        <v>-10559.0743553183</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>94338.2280404116</v>
+        <v>91792.6182871605</v>
       </c>
       <c r="C40" t="n">
-        <v>60879.7613578259</v>
+        <v>79433.9717205853</v>
       </c>
       <c r="D40" t="n">
-        <v>44979.5945451391</v>
+        <v>72902.2531261948</v>
       </c>
       <c r="E40" t="n">
-        <v>129085.458597445</v>
+        <v>103843.706115872</v>
       </c>
       <c r="F40" t="n">
-        <v>147883.672089586</v>
+        <v>110636.9290336</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,9 +1664,297 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>18007.2280404116</v>
+        <v>15461.6182871605</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>87489.9861716521</v>
+      </c>
+      <c r="C41" t="n">
+        <v>74870.0640980078</v>
+      </c>
+      <c r="D41" t="n">
+        <v>65582.3977195171</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100624.9741448</v>
+      </c>
+      <c r="F41" t="n">
+        <v>107253.605133813</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>72846</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14643.9861716521</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>83756.7376991633</v>
+      </c>
+      <c r="C42" t="n">
+        <v>71691.3682640678</v>
+      </c>
+      <c r="D42" t="n">
+        <v>64053.1744116483</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96709.4955140786</v>
+      </c>
+      <c r="F42" t="n">
+        <v>102696.318052206</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>69068</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14688.7376991633</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>80138.4248987806</v>
+      </c>
+      <c r="C43" t="n">
+        <v>66721.4158532993</v>
+      </c>
+      <c r="D43" t="n">
+        <v>61197.4352415266</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94411.3111476107</v>
+      </c>
+      <c r="F43" t="n">
+        <v>102193.2768527</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>64788</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15350.4248987806</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>78422.1084577931</v>
+      </c>
+      <c r="C44" t="n">
+        <v>65658.2621825926</v>
+      </c>
+      <c r="D44" t="n">
+        <v>59561.0252035128</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90506.3510754399</v>
+      </c>
+      <c r="F44" t="n">
+        <v>97962.1296677624</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>66989</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11433.1084577931</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>74810.0134033843</v>
+      </c>
+      <c r="C45" t="n">
+        <v>62163.2918381312</v>
+      </c>
+      <c r="D45" t="n">
+        <v>55595.7526179786</v>
+      </c>
+      <c r="E45" t="n">
+        <v>87536.2340027799</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94981.6370605431</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>66563</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8247.01340338426</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>70981.7020071249</v>
+      </c>
+      <c r="C46" t="n">
+        <v>57333.6025771899</v>
+      </c>
+      <c r="D46" t="n">
+        <v>48408.052003131</v>
+      </c>
+      <c r="E46" t="n">
+        <v>86204.4932756277</v>
+      </c>
+      <c r="F46" t="n">
+        <v>93142.5839089309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>61859</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9122.70200712487</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>63652.2079868878</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50934.0957731907</v>
+      </c>
+      <c r="D47" t="n">
+        <v>41677.5775298247</v>
+      </c>
+      <c r="E47" t="n">
+        <v>76973.1528390992</v>
+      </c>
+      <c r="F47" t="n">
+        <v>83947.5713599947</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>59239</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4413.20798688783</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>65388.7485222447</v>
+      </c>
+      <c r="C48" t="n">
+        <v>53677.0719004892</v>
+      </c>
+      <c r="D48" t="n">
+        <v>45081.6366175567</v>
+      </c>
+      <c r="E48" t="n">
+        <v>79889.1173893806</v>
+      </c>
+      <c r="F48" t="n">
+        <v>85826.7631275252</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>57432</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7956.74852224468</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>65040.7025180283</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50031.2680716225</v>
+      </c>
+      <c r="D49" t="n">
+        <v>41991.4372697809</v>
+      </c>
+      <c r="E49" t="n">
+        <v>78851.759368852</v>
+      </c>
+      <c r="F49" t="n">
+        <v>87172.3033049822</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>52826</v>
+      </c>
+      <c r="I49" t="n">
+        <v>12214.7025180283</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>

--- a/outcome/appendix/data/forecast/Tuberculosis.xlsx
+++ b/outcome/appendix/data/forecast/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>76058.6669505448</v>
+        <v>75046.3157696541</v>
       </c>
       <c r="C2" t="n">
-        <v>65816.9938808343</v>
+        <v>65203.6510518443</v>
       </c>
       <c r="D2" t="n">
-        <v>61352.0518525258</v>
+        <v>60752.3217060965</v>
       </c>
       <c r="E2" t="n">
-        <v>85802.1983974456</v>
+        <v>85217.95543226</v>
       </c>
       <c r="F2" t="n">
-        <v>90043.4246387588</v>
+        <v>89018.5031185561</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>8376.66695054479</v>
+        <v>7364.31576965413</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>71103.198451947</v>
+        <v>72105.4296611171</v>
       </c>
       <c r="C3" t="n">
-        <v>62369.2027954493</v>
+        <v>62551.6620694992</v>
       </c>
       <c r="D3" t="n">
-        <v>58718.1486506973</v>
+        <v>57140.1641158205</v>
       </c>
       <c r="E3" t="n">
-        <v>80356.9597341114</v>
+        <v>81559.7322330257</v>
       </c>
       <c r="F3" t="n">
-        <v>85746.1934072028</v>
+        <v>86600.0804872087</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>26170.198451947</v>
+        <v>27172.4296611171</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>101324.558755105</v>
+        <v>101068.545015169</v>
       </c>
       <c r="C4" t="n">
-        <v>92908.4415163261</v>
+        <v>91330.4644127494</v>
       </c>
       <c r="D4" t="n">
-        <v>88263.6923961352</v>
+        <v>86632.1897996624</v>
       </c>
       <c r="E4" t="n">
-        <v>109725.825606414</v>
+        <v>110699.904960926</v>
       </c>
       <c r="F4" t="n">
-        <v>113923.755264679</v>
+        <v>116764.520861347</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>27897.5587551051</v>
+        <v>27641.5450151689</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>97421.3891170153</v>
+        <v>97214.4745146388</v>
       </c>
       <c r="C5" t="n">
-        <v>88004.3350233479</v>
+        <v>87316.8178519852</v>
       </c>
       <c r="D5" t="n">
-        <v>83130.9055618519</v>
+        <v>82278.8847322012</v>
       </c>
       <c r="E5" t="n">
-        <v>106190.640244216</v>
+        <v>106751.890519741</v>
       </c>
       <c r="F5" t="n">
-        <v>110827.002809828</v>
+        <v>112955.118571655</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>11737.3891170153</v>
+        <v>11530.4745146388</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>93735.4621817638</v>
+        <v>93399.0669823059</v>
       </c>
       <c r="C6" t="n">
-        <v>84394.6997921297</v>
+        <v>84639.4602316125</v>
       </c>
       <c r="D6" t="n">
-        <v>79340.4294335717</v>
+        <v>79570.0588579297</v>
       </c>
       <c r="E6" t="n">
-        <v>103243.727504873</v>
+        <v>102539.852004389</v>
       </c>
       <c r="F6" t="n">
-        <v>107515.789966429</v>
+        <v>107770.001523565</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>10350.4621817638</v>
+        <v>10014.0669823059</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>89640.7916320238</v>
+        <v>89003.2208715505</v>
       </c>
       <c r="C7" t="n">
-        <v>80228.1582127822</v>
+        <v>79587.8499897217</v>
       </c>
       <c r="D7" t="n">
-        <v>74664.9027966265</v>
+        <v>74953.706201552</v>
       </c>
       <c r="E7" t="n">
-        <v>99283.3117472104</v>
+        <v>98695.3479132171</v>
       </c>
       <c r="F7" t="n">
-        <v>103761.410208594</v>
+        <v>101932.215173308</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>4688.79163202383</v>
+        <v>4051.22087155053</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>88255.8603073016</v>
+        <v>88154.4456658536</v>
       </c>
       <c r="C8" t="n">
-        <v>79043.7967277507</v>
+        <v>79967.1970536188</v>
       </c>
       <c r="D8" t="n">
-        <v>75115.8934992082</v>
+        <v>73939.3454179981</v>
       </c>
       <c r="E8" t="n">
-        <v>96662.4883232987</v>
+        <v>96960.4178065032</v>
       </c>
       <c r="F8" t="n">
-        <v>99638.381735002</v>
+        <v>102589.527912631</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>11832.8603073016</v>
+        <v>11731.4456658536</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>83750.6154189925</v>
+        <v>84584.8737563864</v>
       </c>
       <c r="C9" t="n">
-        <v>74349.9664709751</v>
+        <v>74953.5190507373</v>
       </c>
       <c r="D9" t="n">
-        <v>69591.7584496787</v>
+        <v>70296.6184923408</v>
       </c>
       <c r="E9" t="n">
-        <v>93359.3325910496</v>
+        <v>94515.9007225275</v>
       </c>
       <c r="F9" t="n">
-        <v>100373.745301926</v>
+        <v>100324.251432119</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>76423</v>
       </c>
       <c r="I9" t="n">
-        <v>7327.6154189925</v>
+        <v>8161.87375638637</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>80726.8815142626</v>
+        <v>80027.7519877782</v>
       </c>
       <c r="C10" t="n">
-        <v>70583.4967357986</v>
+        <v>69729.6651900781</v>
       </c>
       <c r="D10" t="n">
-        <v>64906.5272520552</v>
+        <v>65086.7208689192</v>
       </c>
       <c r="E10" t="n">
-        <v>91341.434807293</v>
+        <v>90888.8660500617</v>
       </c>
       <c r="F10" t="n">
-        <v>95031.6623971128</v>
+        <v>94872.7878323054</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>5317.88151426258</v>
+        <v>4618.75198777819</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>72656.0864409387</v>
+        <v>73323.0655398149</v>
       </c>
       <c r="C11" t="n">
-        <v>63980.6705631857</v>
+        <v>64796.8455255981</v>
       </c>
       <c r="D11" t="n">
-        <v>60945.9218284424</v>
+        <v>59932.5778171238</v>
       </c>
       <c r="E11" t="n">
-        <v>81910.1393627078</v>
+        <v>82900.8665613077</v>
       </c>
       <c r="F11" t="n">
-        <v>87039.0851137194</v>
+        <v>86535.6664561665</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>4813.08644093867</v>
+        <v>5480.06553981491</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>75392.3984119033</v>
+        <v>75032.8594738095</v>
       </c>
       <c r="C12" t="n">
-        <v>66809.4398641828</v>
+        <v>65889.4328289609</v>
       </c>
       <c r="D12" t="n">
-        <v>61603.3182634011</v>
+        <v>59529.7615849535</v>
       </c>
       <c r="E12" t="n">
-        <v>84061.2920293156</v>
+        <v>84467.4635504147</v>
       </c>
       <c r="F12" t="n">
-        <v>87928.3952115976</v>
+        <v>90570.2840161387</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>5752.39841190331</v>
+        <v>5392.85947380945</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>74100.417321842</v>
+        <v>74619.7886172594</v>
       </c>
       <c r="C13" t="n">
-        <v>64189.9339142953</v>
+        <v>64269.9981309098</v>
       </c>
       <c r="D13" t="n">
-        <v>57935.2178697959</v>
+        <v>58935.0545295768</v>
       </c>
       <c r="E13" t="n">
-        <v>83883.2043205194</v>
+        <v>84835.736475865</v>
       </c>
       <c r="F13" t="n">
-        <v>87736.2398766564</v>
+        <v>89874.5099128777</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>10003.417321842</v>
+        <v>10522.7886172594</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>71834.0649501758</v>
+        <v>72264.6651784669</v>
       </c>
       <c r="C14" t="n">
-        <v>60763.3110285584</v>
+        <v>62388.5140864441</v>
       </c>
       <c r="D14" t="n">
-        <v>55741.5066295272</v>
+        <v>57776.2887273276</v>
       </c>
       <c r="E14" t="n">
-        <v>83089.0459978857</v>
+        <v>82812.7267979411</v>
       </c>
       <c r="F14" t="n">
-        <v>87486.9270546769</v>
+        <v>86400.9995300981</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>7021.06495017582</v>
+        <v>7451.66517846688</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>68420.4078843163</v>
+        <v>68403.9513772612</v>
       </c>
       <c r="C15" t="n">
-        <v>58465.9830853916</v>
+        <v>58777.4194845699</v>
       </c>
       <c r="D15" t="n">
-        <v>52124.9662285213</v>
+        <v>53347.0376566887</v>
       </c>
       <c r="E15" t="n">
-        <v>79346.1689197092</v>
+        <v>78752.3610101091</v>
       </c>
       <c r="F15" t="n">
-        <v>84265.1312347598</v>
+        <v>82781.6694909968</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>12995.4078843163</v>
+        <v>12978.9513772612</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>98598.6677387737</v>
+        <v>97792.9152505221</v>
       </c>
       <c r="C16" t="n">
-        <v>89073.7966136857</v>
+        <v>88080.0365025298</v>
       </c>
       <c r="D16" t="n">
-        <v>83686.2742029223</v>
+        <v>79672.1881551589</v>
       </c>
       <c r="E16" t="n">
-        <v>108104.096115048</v>
+        <v>107997.020642284</v>
       </c>
       <c r="F16" t="n">
-        <v>113999.182654908</v>
+        <v>113127.001627439</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>17795.6677387737</v>
+        <v>16989.9152505221</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93810.2837029956</v>
+        <v>94294.8503960982</v>
       </c>
       <c r="C17" t="n">
-        <v>83830.3876340301</v>
+        <v>84118.0393721493</v>
       </c>
       <c r="D17" t="n">
-        <v>77512.0538611598</v>
+        <v>78039.6615142223</v>
       </c>
       <c r="E17" t="n">
-        <v>104029.472748535</v>
+        <v>105026.544240006</v>
       </c>
       <c r="F17" t="n">
-        <v>108815.104446371</v>
+        <v>110281.128184052</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>13262.2837029956</v>
+        <v>13746.8503960982</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90070.169257137</v>
+        <v>90725.5328867159</v>
       </c>
       <c r="C18" t="n">
-        <v>80257.6125761676</v>
+        <v>81087.6669017548</v>
       </c>
       <c r="D18" t="n">
-        <v>76173.3476682402</v>
+        <v>74583.3575267834</v>
       </c>
       <c r="E18" t="n">
-        <v>99041.7347582554</v>
+        <v>100969.071914879</v>
       </c>
       <c r="F18" t="n">
-        <v>103730.086717645</v>
+        <v>106521.714411895</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>14827.169257137</v>
+        <v>15482.5328867159</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>85881.0336740811</v>
+        <v>85282.5573052914</v>
       </c>
       <c r="C19" t="n">
-        <v>75033.7888966378</v>
+        <v>74403.8915507522</v>
       </c>
       <c r="D19" t="n">
-        <v>69165.6118014313</v>
+        <v>70640.4284485027</v>
       </c>
       <c r="E19" t="n">
-        <v>95845.9187899976</v>
+        <v>95562.6242555938</v>
       </c>
       <c r="F19" t="n">
-        <v>100852.254171585</v>
+        <v>101277.435511938</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>11997.0336740811</v>
+        <v>11398.5573052914</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84618.5206784737</v>
+        <v>84544.7373162667</v>
       </c>
       <c r="C20" t="n">
-        <v>73976.5022195344</v>
+        <v>74219.9499357932</v>
       </c>
       <c r="D20" t="n">
-        <v>69462.4714956766</v>
+        <v>69266.4047468301</v>
       </c>
       <c r="E20" t="n">
-        <v>95535.1818729681</v>
+        <v>95622.7585375223</v>
       </c>
       <c r="F20" t="n">
-        <v>100188.081558761</v>
+        <v>99651.3708479075</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7970.52067847365</v>
+        <v>7896.73731626672</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81682.4449183012</v>
+        <v>81402.680925738</v>
       </c>
       <c r="C21" t="n">
-        <v>71002.9656084376</v>
+        <v>71432.743767503</v>
       </c>
       <c r="D21" t="n">
-        <v>65404.9986715284</v>
+        <v>66589.7227967164</v>
       </c>
       <c r="E21" t="n">
-        <v>92425.4318003658</v>
+        <v>91133.8093747681</v>
       </c>
       <c r="F21" t="n">
-        <v>99104.4481301872</v>
+        <v>96731.4607180529</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13716.4449183012</v>
+        <v>13436.680925738</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>76536.5123785221</v>
+        <v>76382.7776806758</v>
       </c>
       <c r="C22" t="n">
-        <v>66653.4557672961</v>
+        <v>65841.678666798</v>
       </c>
       <c r="D22" t="n">
-        <v>62416.3724210235</v>
+        <v>60704.4232172031</v>
       </c>
       <c r="E22" t="n">
-        <v>86943.3749081003</v>
+        <v>87096.4525062189</v>
       </c>
       <c r="F22" t="n">
-        <v>91212.0802357506</v>
+        <v>94545.1535725355</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>8724.51237852211</v>
+        <v>8570.77768067578</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>69554.6387335136</v>
+        <v>69944.6003364079</v>
       </c>
       <c r="C23" t="n">
-        <v>59315.4926029524</v>
+        <v>58913.9880163971</v>
       </c>
       <c r="D23" t="n">
-        <v>54954.5551296895</v>
+        <v>54569.8626815256</v>
       </c>
       <c r="E23" t="n">
-        <v>80360.9575743668</v>
+        <v>81059.7505584873</v>
       </c>
       <c r="F23" t="n">
-        <v>86553.0202616869</v>
+        <v>87080.420310449</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>8163.63873351355</v>
+        <v>8553.60033640792</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>71182.7165996807</v>
+        <v>71444.749291541</v>
       </c>
       <c r="C24" t="n">
-        <v>60659.3222388759</v>
+        <v>60957.0948449258</v>
       </c>
       <c r="D24" t="n">
-        <v>56564.3438155346</v>
+        <v>54651.6867331116</v>
       </c>
       <c r="E24" t="n">
-        <v>80943.888888426</v>
+        <v>82187.1701387064</v>
       </c>
       <c r="F24" t="n">
-        <v>86241.0351243605</v>
+        <v>87302.9654726141</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>9429.71659968072</v>
+        <v>9691.74929154097</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>71373.2232571939</v>
+        <v>71044.9432641788</v>
       </c>
       <c r="C25" t="n">
-        <v>59923.9198514944</v>
+        <v>59364.3039793894</v>
       </c>
       <c r="D25" t="n">
-        <v>53770.4205362018</v>
+        <v>53095.9768012581</v>
       </c>
       <c r="E25" t="n">
-        <v>82572.5421821429</v>
+        <v>81740.7267021657</v>
       </c>
       <c r="F25" t="n">
-        <v>90311.0990265859</v>
+        <v>88340.8361450565</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>9585.22325719387</v>
+        <v>9256.9432641788</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>69281.9485679546</v>
+        <v>68683.0533052711</v>
       </c>
       <c r="C26" t="n">
-        <v>58560.15507813</v>
+        <v>56773.8142000938</v>
       </c>
       <c r="D26" t="n">
-        <v>54301.8710811231</v>
+        <v>49772.9934054191</v>
       </c>
       <c r="E26" t="n">
-        <v>80346.6766889944</v>
+        <v>79933.9807733853</v>
       </c>
       <c r="F26" t="n">
-        <v>86930.5851354849</v>
+        <v>87224.7627409838</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>7584.94856795456</v>
+        <v>6986.05330527108</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>64593.430165873</v>
+        <v>64391.931900968</v>
       </c>
       <c r="C27" t="n">
-        <v>54197.7963034847</v>
+        <v>53018.2344655623</v>
       </c>
       <c r="D27" t="n">
-        <v>47595.3840503633</v>
+        <v>47632.3629732831</v>
       </c>
       <c r="E27" t="n">
-        <v>75518.0252158612</v>
+        <v>75301.7536442668</v>
       </c>
       <c r="F27" t="n">
-        <v>81620.2301214559</v>
+        <v>81547.8372521303</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>11997.430165873</v>
+        <v>11795.931900968</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>94906.1962036138</v>
+        <v>94635.2824160223</v>
       </c>
       <c r="C28" t="n">
-        <v>84010.8743765994</v>
+        <v>82766.0851769014</v>
       </c>
       <c r="D28" t="n">
-        <v>78579.9717202609</v>
+        <v>75398.8933046677</v>
       </c>
       <c r="E28" t="n">
-        <v>105882.726593081</v>
+        <v>107663.871069147</v>
       </c>
       <c r="F28" t="n">
-        <v>111018.177777043</v>
+        <v>112432.843549957</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>21796.1962036138</v>
+        <v>21525.2824160223</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>90596.8770354144</v>
+        <v>90647.9079439295</v>
       </c>
       <c r="C29" t="n">
-        <v>78882.9033077696</v>
+        <v>80417.9375580168</v>
       </c>
       <c r="D29" t="n">
-        <v>74130.6700899593</v>
+        <v>72765.0683101188</v>
       </c>
       <c r="E29" t="n">
-        <v>102371.075051183</v>
+        <v>102174.254842096</v>
       </c>
       <c r="F29" t="n">
-        <v>106513.575908165</v>
+        <v>107285.315458195</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>29411.8770354144</v>
+        <v>29462.9079439295</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>87695.2982978168</v>
+        <v>86913.2317013344</v>
       </c>
       <c r="C30" t="n">
-        <v>76205.4997756054</v>
+        <v>75284.8150571572</v>
       </c>
       <c r="D30" t="n">
-        <v>70655.9319922489</v>
+        <v>70066.4641827443</v>
       </c>
       <c r="E30" t="n">
-        <v>98972.6917779441</v>
+        <v>98036.2550952238</v>
       </c>
       <c r="F30" t="n">
-        <v>105243.267007755</v>
+        <v>103954.31654085</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>24105.2982978168</v>
+        <v>23323.2317013344</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>82595.7754846212</v>
+        <v>82333.1308314578</v>
       </c>
       <c r="C31" t="n">
-        <v>71253.3231641734</v>
+        <v>70115.0880589893</v>
       </c>
       <c r="D31" t="n">
-        <v>64922.5628766355</v>
+        <v>63602.6679731942</v>
       </c>
       <c r="E31" t="n">
-        <v>93949.5887852478</v>
+        <v>93381.7201993176</v>
       </c>
       <c r="F31" t="n">
-        <v>98299.6186887938</v>
+        <v>98605.3962628012</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>14694.7754846212</v>
+        <v>14432.1308314578</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>80697.5641141592</v>
+        <v>82019.2064063638</v>
       </c>
       <c r="C32" t="n">
-        <v>67809.3224974755</v>
+        <v>69907.2462895322</v>
       </c>
       <c r="D32" t="n">
-        <v>63957.5440368129</v>
+        <v>64511.7590538728</v>
       </c>
       <c r="E32" t="n">
-        <v>92507.29108991</v>
+        <v>94245.4144683454</v>
       </c>
       <c r="F32" t="n">
-        <v>99017.4764471337</v>
+        <v>99446.5269730463</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>9275.56411415924</v>
+        <v>10597.2064063638</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>77604.7702326643</v>
+        <v>77974.5936713414</v>
       </c>
       <c r="C33" t="n">
-        <v>65613.2432513109</v>
+        <v>66563.065083285</v>
       </c>
       <c r="D33" t="n">
-        <v>60047.7328465576</v>
+        <v>61115.2771181612</v>
       </c>
       <c r="E33" t="n">
-        <v>89286.8783065844</v>
+        <v>88838.2444577107</v>
       </c>
       <c r="F33" t="n">
-        <v>93882.7583665192</v>
+        <v>96549.5348250704</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>8585.77023266429</v>
+        <v>8955.59367134137</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>73155.9601031398</v>
+        <v>73561.1350885332</v>
       </c>
       <c r="C34" t="n">
-        <v>61694.4162576925</v>
+        <v>62046.2678281605</v>
       </c>
       <c r="D34" t="n">
-        <v>56256.2893923597</v>
+        <v>54725.7998114397</v>
       </c>
       <c r="E34" t="n">
-        <v>84712.5102135818</v>
+        <v>84998.6463440135</v>
       </c>
       <c r="F34" t="n">
-        <v>89847.5350041539</v>
+        <v>90695.7328930472</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>14517.9601031398</v>
+        <v>14923.1350885332</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>66421.1252735992</v>
+        <v>66482.0788527867</v>
       </c>
       <c r="C35" t="n">
-        <v>54638.7663367357</v>
+        <v>53028.0969120856</v>
       </c>
       <c r="D35" t="n">
-        <v>47862.2053859851</v>
+        <v>46677.5439267705</v>
       </c>
       <c r="E35" t="n">
-        <v>78778.7257669621</v>
+        <v>77426.2979501188</v>
       </c>
       <c r="F35" t="n">
-        <v>83549.9240050084</v>
+        <v>86137.776860444</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>15296.1252735992</v>
+        <v>15357.0788527867</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>68904.2186649911</v>
+        <v>68316.8508926015</v>
       </c>
       <c r="C36" t="n">
-        <v>56466.8027645694</v>
+        <v>55602.629964179</v>
       </c>
       <c r="D36" t="n">
-        <v>49032.3704827831</v>
+        <v>50881.1135075122</v>
       </c>
       <c r="E36" t="n">
-        <v>81459.4676567112</v>
+        <v>79249.9950018123</v>
       </c>
       <c r="F36" t="n">
-        <v>87676.7941039199</v>
+        <v>85093.7291867074</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>20552.2186649911</v>
+        <v>19964.8508926015</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>68590.1299723194</v>
+        <v>67603.2263005489</v>
       </c>
       <c r="C37" t="n">
-        <v>56524.3528055816</v>
+        <v>55713.2516395178</v>
       </c>
       <c r="D37" t="n">
-        <v>49305.1065242872</v>
+        <v>47801.1042164258</v>
       </c>
       <c r="E37" t="n">
-        <v>81025.3867263708</v>
+        <v>80470.9356247985</v>
       </c>
       <c r="F37" t="n">
-        <v>86364.2970736267</v>
+        <v>87809.6580276401</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>34639.1299723194</v>
+        <v>33652.2263005489</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>65630.8362440406</v>
+        <v>65623.0476276072</v>
       </c>
       <c r="C38" t="n">
-        <v>53456.1945670288</v>
+        <v>53829.2318709858</v>
       </c>
       <c r="D38" t="n">
-        <v>48692.0643847349</v>
+        <v>46830.4354770581</v>
       </c>
       <c r="E38" t="n">
-        <v>78119.7602978443</v>
+        <v>78305.9106614173</v>
       </c>
       <c r="F38" t="n">
-        <v>86596.6178484764</v>
+        <v>87408.9016112341</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>11900.8362440406</v>
+        <v>11893.0476276072</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>61281.9256446817</v>
+        <v>61838.6875939946</v>
       </c>
       <c r="C39" t="n">
-        <v>49347.3825449115</v>
+        <v>49422.6057697132</v>
       </c>
       <c r="D39" t="n">
-        <v>42455.6669657849</v>
+        <v>43255.4742737752</v>
       </c>
       <c r="E39" t="n">
-        <v>75786.5093092571</v>
+        <v>74833.37258661</v>
       </c>
       <c r="F39" t="n">
-        <v>81364.0794162645</v>
+        <v>80495.9757253645</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>-10559.0743553183</v>
+        <v>-10002.3124060054</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>91792.6182871605</v>
+        <v>91639.1910628923</v>
       </c>
       <c r="C40" t="n">
-        <v>79433.9717205853</v>
+        <v>78916.3278075719</v>
       </c>
       <c r="D40" t="n">
-        <v>72902.2531261948</v>
+        <v>70399.8358717311</v>
       </c>
       <c r="E40" t="n">
-        <v>103843.706115872</v>
+        <v>104445.971559541</v>
       </c>
       <c r="F40" t="n">
-        <v>110636.9290336</v>
+        <v>111644.087810682</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>15461.6182871605</v>
+        <v>15308.1910628923</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>87489.9861716521</v>
+        <v>88076.2715757732</v>
       </c>
       <c r="C41" t="n">
-        <v>74870.0640980078</v>
+        <v>75519.5821402381</v>
       </c>
       <c r="D41" t="n">
-        <v>65582.3977195171</v>
+        <v>66994.2586999242</v>
       </c>
       <c r="E41" t="n">
-        <v>100624.9741448</v>
+        <v>101198.094952653</v>
       </c>
       <c r="F41" t="n">
-        <v>107253.605133813</v>
+        <v>108246.223008898</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>72846</v>
       </c>
       <c r="I41" t="n">
-        <v>14643.9861716521</v>
+        <v>15230.2715757732</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>83756.7376991633</v>
+        <v>84319.7039475169</v>
       </c>
       <c r="C42" t="n">
-        <v>71691.3682640678</v>
+        <v>70702.3839377519</v>
       </c>
       <c r="D42" t="n">
-        <v>64053.1744116483</v>
+        <v>61898.6831630075</v>
       </c>
       <c r="E42" t="n">
-        <v>96709.4955140786</v>
+        <v>97473.3904717548</v>
       </c>
       <c r="F42" t="n">
-        <v>102696.318052206</v>
+        <v>103093.532482701</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>69068</v>
       </c>
       <c r="I42" t="n">
-        <v>14688.7376991633</v>
+        <v>15251.7039475169</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>80138.4248987806</v>
+        <v>79325.9377130483</v>
       </c>
       <c r="C43" t="n">
-        <v>66721.4158532993</v>
+        <v>66481.6208082436</v>
       </c>
       <c r="D43" t="n">
-        <v>61197.4352415266</v>
+        <v>55179.2114443557</v>
       </c>
       <c r="E43" t="n">
-        <v>94411.3111476107</v>
+        <v>92082.7885655877</v>
       </c>
       <c r="F43" t="n">
-        <v>102193.2768527</v>
+        <v>99494.265977426</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>64788</v>
       </c>
       <c r="I43" t="n">
-        <v>15350.4248987806</v>
+        <v>14537.9377130483</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>78422.1084577931</v>
+        <v>78880.7902342067</v>
       </c>
       <c r="C44" t="n">
-        <v>65658.2621825926</v>
+        <v>65525.6406574387</v>
       </c>
       <c r="D44" t="n">
-        <v>59561.0252035128</v>
+        <v>57735.8999888362</v>
       </c>
       <c r="E44" t="n">
-        <v>90506.3510754399</v>
+        <v>92589.116086995</v>
       </c>
       <c r="F44" t="n">
-        <v>97962.1296677624</v>
+        <v>97860.0578320921</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>66989</v>
       </c>
       <c r="I44" t="n">
-        <v>11433.1084577931</v>
+        <v>11891.7902342067</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>74810.0134033843</v>
+        <v>74780.8681509883</v>
       </c>
       <c r="C45" t="n">
-        <v>62163.2918381312</v>
+        <v>61872.6682124216</v>
       </c>
       <c r="D45" t="n">
-        <v>55595.7526179786</v>
+        <v>53220.7891878863</v>
       </c>
       <c r="E45" t="n">
-        <v>87536.2340027799</v>
+        <v>87267.9617228335</v>
       </c>
       <c r="F45" t="n">
-        <v>94981.6370605431</v>
+        <v>95352.78675278</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>66563</v>
       </c>
       <c r="I45" t="n">
-        <v>8247.01340338426</v>
+        <v>8217.8681509883</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>70981.7020071249</v>
+        <v>70382.8725916509</v>
       </c>
       <c r="C46" t="n">
-        <v>57333.6025771899</v>
+        <v>56726.1827283252</v>
       </c>
       <c r="D46" t="n">
-        <v>48408.052003131</v>
+        <v>47038.2132024859</v>
       </c>
       <c r="E46" t="n">
-        <v>86204.4932756277</v>
+        <v>84315.5306308535</v>
       </c>
       <c r="F46" t="n">
-        <v>93142.5839089309</v>
+        <v>91577.473801216</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>61859</v>
       </c>
       <c r="I46" t="n">
-        <v>9122.70200712487</v>
+        <v>8523.87259165094</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63652.2079868878</v>
+        <v>63755.1754114702</v>
       </c>
       <c r="C47" t="n">
-        <v>50934.0957731907</v>
+        <v>50946.4844053361</v>
       </c>
       <c r="D47" t="n">
-        <v>41677.5775298247</v>
+        <v>44026.9844075944</v>
       </c>
       <c r="E47" t="n">
-        <v>76973.1528390992</v>
+        <v>75639.2412591169</v>
       </c>
       <c r="F47" t="n">
-        <v>83947.5713599947</v>
+        <v>84061.9277182789</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>59239</v>
       </c>
       <c r="I47" t="n">
-        <v>4413.20798688783</v>
+        <v>4516.1754114702</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>65388.7485222447</v>
+        <v>65376.8253801137</v>
       </c>
       <c r="C48" t="n">
-        <v>53677.0719004892</v>
+        <v>51173.7755721084</v>
       </c>
       <c r="D48" t="n">
-        <v>45081.6366175567</v>
+        <v>43118.5576579996</v>
       </c>
       <c r="E48" t="n">
-        <v>79889.1173893806</v>
+        <v>78704.735038467</v>
       </c>
       <c r="F48" t="n">
-        <v>85826.7631275252</v>
+        <v>85973.3384579219</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>57432</v>
       </c>
       <c r="I48" t="n">
-        <v>7956.74852224468</v>
+        <v>7944.82538011372</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>65040.7025180283</v>
+        <v>64494.8710588092</v>
       </c>
       <c r="C49" t="n">
-        <v>50031.2680716225</v>
+        <v>50831.56579562</v>
       </c>
       <c r="D49" t="n">
-        <v>41991.4372697809</v>
+        <v>41428.1599136692</v>
       </c>
       <c r="E49" t="n">
-        <v>78851.759368852</v>
+        <v>77516.3065517331</v>
       </c>
       <c r="F49" t="n">
-        <v>87172.3033049822</v>
+        <v>86279.9213737297</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>52826</v>
       </c>
       <c r="I49" t="n">
-        <v>12214.7025180283</v>
+        <v>11668.8710588092</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
